--- a/Bases_de_Dados_(2022-2023)/Estonia Meistriliiga_2022.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Estonia Meistriliiga_2022.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="279">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -596,6 +596,9 @@
   </si>
   <si>
     <t>['34', '56']</t>
+  </si>
+  <si>
+    <t>['18', '34']</t>
   </si>
   <si>
     <t>['10', '17', '41']</t>
@@ -1209,7 +1212,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK169"/>
+  <dimension ref="A1:BK171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1644,7 +1647,7 @@
         <v>76</v>
       </c>
       <c r="P3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q3">
         <v>1</v>
@@ -1734,7 +1737,7 @@
         <v>0.61</v>
       </c>
       <c r="AT3">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -2026,7 +2029,7 @@
         <v>78</v>
       </c>
       <c r="P5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -2113,7 +2116,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT5">
         <v>2.71</v>
@@ -2217,7 +2220,7 @@
         <v>78</v>
       </c>
       <c r="P6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -2307,7 +2310,7 @@
         <v>0.88</v>
       </c>
       <c r="AT6">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2408,7 +2411,7 @@
         <v>79</v>
       </c>
       <c r="P7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2498,7 +2501,7 @@
         <v>1.59</v>
       </c>
       <c r="AT7">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2599,7 +2602,7 @@
         <v>78</v>
       </c>
       <c r="P8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q8">
         <v>1</v>
@@ -2790,7 +2793,7 @@
         <v>80</v>
       </c>
       <c r="P9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q9">
         <v>9</v>
@@ -3068,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AT10">
         <v>1</v>
@@ -3172,7 +3175,7 @@
         <v>82</v>
       </c>
       <c r="P11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q11">
         <v>9</v>
@@ -3363,7 +3366,7 @@
         <v>78</v>
       </c>
       <c r="P12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q12">
         <v>5</v>
@@ -3554,7 +3557,7 @@
         <v>78</v>
       </c>
       <c r="P13" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -4127,7 +4130,7 @@
         <v>85</v>
       </c>
       <c r="P16" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -4318,7 +4321,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q17">
         <v>6</v>
@@ -4509,7 +4512,7 @@
         <v>87</v>
       </c>
       <c r="P18" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -4891,7 +4894,7 @@
         <v>89</v>
       </c>
       <c r="P20" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q20">
         <v>8</v>
@@ -4978,10 +4981,10 @@
         <v>3</v>
       </c>
       <c r="AS20">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT20">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AU20">
         <v>0.7</v>
@@ -5082,7 +5085,7 @@
         <v>78</v>
       </c>
       <c r="P21" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q21">
         <v>4</v>
@@ -5172,7 +5175,7 @@
         <v>1</v>
       </c>
       <c r="AT21">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AU21">
         <v>0.6899999999999999</v>
@@ -5273,7 +5276,7 @@
         <v>90</v>
       </c>
       <c r="P22" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q22">
         <v>2</v>
@@ -5742,10 +5745,10 @@
         <v>3</v>
       </c>
       <c r="AS24">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AT24">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU24">
         <v>3.75</v>
@@ -5846,7 +5849,7 @@
         <v>93</v>
       </c>
       <c r="P25" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6124,7 +6127,7 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AT26">
         <v>0.44</v>
@@ -6228,7 +6231,7 @@
         <v>95</v>
       </c>
       <c r="P27" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q27">
         <v>12</v>
@@ -6506,7 +6509,7 @@
         <v>1.33</v>
       </c>
       <c r="AS28">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT28">
         <v>1.12</v>
@@ -6610,7 +6613,7 @@
         <v>97</v>
       </c>
       <c r="P29" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q29">
         <v>8</v>
@@ -6801,7 +6804,7 @@
         <v>78</v>
       </c>
       <c r="P30" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -6992,7 +6995,7 @@
         <v>78</v>
       </c>
       <c r="P31" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7183,7 +7186,7 @@
         <v>98</v>
       </c>
       <c r="P32" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7756,7 +7759,7 @@
         <v>101</v>
       </c>
       <c r="P35" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q35">
         <v>10</v>
@@ -7947,7 +7950,7 @@
         <v>78</v>
       </c>
       <c r="P36" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8138,7 +8141,7 @@
         <v>76</v>
       </c>
       <c r="P37" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q37">
         <v>9</v>
@@ -8329,7 +8332,7 @@
         <v>102</v>
       </c>
       <c r="P38" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q38">
         <v>5</v>
@@ -8419,7 +8422,7 @@
         <v>1.29</v>
       </c>
       <c r="AT38">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AU38">
         <v>2.04</v>
@@ -8520,7 +8523,7 @@
         <v>103</v>
       </c>
       <c r="P39" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q39">
         <v>4</v>
@@ -8607,7 +8610,7 @@
         <v>2.33</v>
       </c>
       <c r="AS39">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT39">
         <v>1.5</v>
@@ -8902,7 +8905,7 @@
         <v>78</v>
       </c>
       <c r="P41" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q41">
         <v>2</v>
@@ -9475,7 +9478,7 @@
         <v>107</v>
       </c>
       <c r="P44" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q44">
         <v>0</v>
@@ -9565,7 +9568,7 @@
         <v>1.59</v>
       </c>
       <c r="AT44">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AU44">
         <v>1.53</v>
@@ -9756,7 +9759,7 @@
         <v>2.11</v>
       </c>
       <c r="AT45">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU45">
         <v>1.83</v>
@@ -9944,7 +9947,7 @@
         <v>3</v>
       </c>
       <c r="AS46">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AT46">
         <v>2.47</v>
@@ -10048,7 +10051,7 @@
         <v>78</v>
       </c>
       <c r="P47" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q47">
         <v>8</v>
@@ -10517,7 +10520,7 @@
         <v>2.25</v>
       </c>
       <c r="AS49">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT49">
         <v>2.47</v>
@@ -10621,7 +10624,7 @@
         <v>111</v>
       </c>
       <c r="P50" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q50">
         <v>2</v>
@@ -10812,7 +10815,7 @@
         <v>112</v>
       </c>
       <c r="P51" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q51">
         <v>11</v>
@@ -11194,7 +11197,7 @@
         <v>78</v>
       </c>
       <c r="P53" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -11475,7 +11478,7 @@
         <v>2.12</v>
       </c>
       <c r="AT54">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU54">
         <v>2.99</v>
@@ -11767,7 +11770,7 @@
         <v>116</v>
       </c>
       <c r="P56" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -11854,7 +11857,7 @@
         <v>1.4</v>
       </c>
       <c r="AS56">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AT56">
         <v>0.82</v>
@@ -11958,7 +11961,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q57">
         <v>4</v>
@@ -12149,7 +12152,7 @@
         <v>78</v>
       </c>
       <c r="P58" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q58">
         <v>0</v>
@@ -12430,7 +12433,7 @@
         <v>0.88</v>
       </c>
       <c r="AT59">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU59">
         <v>1.33</v>
@@ -12809,10 +12812,10 @@
         <v>2.4</v>
       </c>
       <c r="AS61">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AT61">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AU61">
         <v>2.37</v>
@@ -13000,7 +13003,7 @@
         <v>0</v>
       </c>
       <c r="AS62">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT62">
         <v>0</v>
@@ -13385,7 +13388,7 @@
         <v>2.12</v>
       </c>
       <c r="AT64">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AU64">
         <v>2.98</v>
@@ -13486,7 +13489,7 @@
         <v>123</v>
       </c>
       <c r="P65" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q65">
         <v>8</v>
@@ -13573,7 +13576,7 @@
         <v>0.13</v>
       </c>
       <c r="AS65">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT65">
         <v>1</v>
@@ -13764,7 +13767,7 @@
         <v>1</v>
       </c>
       <c r="AS66">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AT66">
         <v>1.12</v>
@@ -13868,7 +13871,7 @@
         <v>125</v>
       </c>
       <c r="P67" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q67">
         <v>5</v>
@@ -13958,7 +13961,7 @@
         <v>1.76</v>
       </c>
       <c r="AT67">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU67">
         <v>2.67</v>
@@ -14441,7 +14444,7 @@
         <v>79</v>
       </c>
       <c r="P70" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q70">
         <v>6</v>
@@ -14632,7 +14635,7 @@
         <v>127</v>
       </c>
       <c r="P71" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -15205,7 +15208,7 @@
         <v>78</v>
       </c>
       <c r="P74" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q74">
         <v>1</v>
@@ -15396,7 +15399,7 @@
         <v>130</v>
       </c>
       <c r="P75" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -15677,7 +15680,7 @@
         <v>2.11</v>
       </c>
       <c r="AT76">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AU76">
         <v>1.77</v>
@@ -15778,7 +15781,7 @@
         <v>132</v>
       </c>
       <c r="P77" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q77">
         <v>4</v>
@@ -16160,7 +16163,7 @@
         <v>134</v>
       </c>
       <c r="P79" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q79">
         <v>10</v>
@@ -16733,7 +16736,7 @@
         <v>132</v>
       </c>
       <c r="P82" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q82">
         <v>6</v>
@@ -16820,7 +16823,7 @@
         <v>0.29</v>
       </c>
       <c r="AS82">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT82">
         <v>0.44</v>
@@ -17011,7 +17014,7 @@
         <v>2</v>
       </c>
       <c r="AS83">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AT83">
         <v>1.5</v>
@@ -17306,7 +17309,7 @@
         <v>78</v>
       </c>
       <c r="P85" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q85">
         <v>3</v>
@@ -17584,10 +17587,10 @@
         <v>0.86</v>
       </c>
       <c r="AS86">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT86">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU86">
         <v>1.3</v>
@@ -17688,7 +17691,7 @@
         <v>139</v>
       </c>
       <c r="P87" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q87">
         <v>11</v>
@@ -17775,7 +17778,7 @@
         <v>0</v>
       </c>
       <c r="AS87">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AT87">
         <v>0</v>
@@ -17879,7 +17882,7 @@
         <v>140</v>
       </c>
       <c r="P88" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q88">
         <v>3</v>
@@ -17969,7 +17972,7 @@
         <v>0.88</v>
       </c>
       <c r="AT88">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AU88">
         <v>1.32</v>
@@ -18070,7 +18073,7 @@
         <v>141</v>
       </c>
       <c r="P89" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q89">
         <v>7</v>
@@ -18351,7 +18354,7 @@
         <v>1.29</v>
       </c>
       <c r="AT90">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AU90">
         <v>1.6</v>
@@ -18452,7 +18455,7 @@
         <v>78</v>
       </c>
       <c r="P91" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q91">
         <v>3</v>
@@ -18643,7 +18646,7 @@
         <v>143</v>
       </c>
       <c r="P92" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q92">
         <v>4</v>
@@ -18834,7 +18837,7 @@
         <v>144</v>
       </c>
       <c r="P93" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q93">
         <v>11</v>
@@ -19025,7 +19028,7 @@
         <v>145</v>
       </c>
       <c r="P94" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q94">
         <v>2</v>
@@ -19115,7 +19118,7 @@
         <v>0.61</v>
       </c>
       <c r="AT94">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU94">
         <v>1.23</v>
@@ -19216,7 +19219,7 @@
         <v>78</v>
       </c>
       <c r="P95" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q95">
         <v>0</v>
@@ -19303,7 +19306,7 @@
         <v>2.44</v>
       </c>
       <c r="AS95">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT95">
         <v>2.47</v>
@@ -19407,7 +19410,7 @@
         <v>146</v>
       </c>
       <c r="P96" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q96">
         <v>11</v>
@@ -19497,7 +19500,7 @@
         <v>2.11</v>
       </c>
       <c r="AT96">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU96">
         <v>1.83</v>
@@ -19876,7 +19879,7 @@
         <v>0.45</v>
       </c>
       <c r="AS98">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AT98">
         <v>1</v>
@@ -19980,7 +19983,7 @@
         <v>78</v>
       </c>
       <c r="P99" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q99">
         <v>3</v>
@@ -20362,7 +20365,7 @@
         <v>78</v>
       </c>
       <c r="P101" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q101">
         <v>2</v>
@@ -20553,7 +20556,7 @@
         <v>150</v>
       </c>
       <c r="P102" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -20643,7 +20646,7 @@
         <v>1</v>
       </c>
       <c r="AT102">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU102">
         <v>1.21</v>
@@ -21126,7 +21129,7 @@
         <v>153</v>
       </c>
       <c r="P105" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q105">
         <v>2</v>
@@ -21317,7 +21320,7 @@
         <v>78</v>
       </c>
       <c r="P106" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q106">
         <v>2</v>
@@ -21404,7 +21407,7 @@
         <v>2.82</v>
       </c>
       <c r="AS106">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT106">
         <v>2.71</v>
@@ -21508,7 +21511,7 @@
         <v>78</v>
       </c>
       <c r="P107" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q107">
         <v>5</v>
@@ -22272,7 +22275,7 @@
         <v>156</v>
       </c>
       <c r="P111" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q111">
         <v>5</v>
@@ -22463,7 +22466,7 @@
         <v>157</v>
       </c>
       <c r="P112" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q112">
         <v>9</v>
@@ -22550,10 +22553,10 @@
         <v>0.91</v>
       </c>
       <c r="AS112">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AT112">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU112">
         <v>2.46</v>
@@ -22654,7 +22657,7 @@
         <v>158</v>
       </c>
       <c r="P113" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q113">
         <v>7</v>
@@ -23036,7 +23039,7 @@
         <v>159</v>
       </c>
       <c r="P115" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q115">
         <v>10</v>
@@ -23227,7 +23230,7 @@
         <v>160</v>
       </c>
       <c r="P116" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -23317,7 +23320,7 @@
         <v>1</v>
       </c>
       <c r="AT116">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AU116">
         <v>1.32</v>
@@ -23418,7 +23421,7 @@
         <v>161</v>
       </c>
       <c r="P117" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q117">
         <v>7</v>
@@ -23609,7 +23612,7 @@
         <v>162</v>
       </c>
       <c r="P118" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q118">
         <v>9</v>
@@ -23696,7 +23699,7 @@
         <v>0</v>
       </c>
       <c r="AS118">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AT118">
         <v>0</v>
@@ -23991,7 +23994,7 @@
         <v>164</v>
       </c>
       <c r="P120" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q120">
         <v>5</v>
@@ -24182,7 +24185,7 @@
         <v>165</v>
       </c>
       <c r="P121" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q121">
         <v>2</v>
@@ -24463,7 +24466,7 @@
         <v>1.59</v>
       </c>
       <c r="AT122">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU122">
         <v>1.59</v>
@@ -24651,7 +24654,7 @@
         <v>0.45</v>
       </c>
       <c r="AS123">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT123">
         <v>0.44</v>
@@ -24755,7 +24758,7 @@
         <v>168</v>
       </c>
       <c r="P124" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q124">
         <v>2</v>
@@ -25328,7 +25331,7 @@
         <v>170</v>
       </c>
       <c r="P127" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q127">
         <v>7</v>
@@ -25519,7 +25522,7 @@
         <v>171</v>
       </c>
       <c r="P128" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -25606,7 +25609,7 @@
         <v>1</v>
       </c>
       <c r="AS128">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT128">
         <v>1.12</v>
@@ -25988,7 +25991,7 @@
         <v>1.83</v>
       </c>
       <c r="AS130">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AT130">
         <v>1.5</v>
@@ -26283,7 +26286,7 @@
         <v>173</v>
       </c>
       <c r="P132" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q132">
         <v>3</v>
@@ -26373,7 +26376,7 @@
         <v>2.11</v>
       </c>
       <c r="AT132">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AU132">
         <v>1.84</v>
@@ -26474,7 +26477,7 @@
         <v>174</v>
       </c>
       <c r="P133" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q133">
         <v>4</v>
@@ -26665,7 +26668,7 @@
         <v>85</v>
       </c>
       <c r="P134" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q134">
         <v>2</v>
@@ -27134,7 +27137,7 @@
         <v>0.93</v>
       </c>
       <c r="AS136">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AT136">
         <v>0.82</v>
@@ -27429,7 +27432,7 @@
         <v>175</v>
       </c>
       <c r="P138" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -27519,7 +27522,7 @@
         <v>0.61</v>
       </c>
       <c r="AT138">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AU138">
         <v>1.38</v>
@@ -27620,7 +27623,7 @@
         <v>78</v>
       </c>
       <c r="P139" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q139">
         <v>3</v>
@@ -28002,7 +28005,7 @@
         <v>177</v>
       </c>
       <c r="P141" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q141">
         <v>7</v>
@@ -28092,7 +28095,7 @@
         <v>0.88</v>
       </c>
       <c r="AT141">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AU141">
         <v>1.38</v>
@@ -28384,7 +28387,7 @@
         <v>78</v>
       </c>
       <c r="P143" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q143">
         <v>1</v>
@@ -28575,7 +28578,7 @@
         <v>175</v>
       </c>
       <c r="P144" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q144">
         <v>18</v>
@@ -28662,7 +28665,7 @@
         <v>0.73</v>
       </c>
       <c r="AS144">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT144">
         <v>1</v>
@@ -28766,7 +28769,7 @@
         <v>179</v>
       </c>
       <c r="P145" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q145">
         <v>10</v>
@@ -29339,7 +29342,7 @@
         <v>181</v>
       </c>
       <c r="P148" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q148">
         <v>7</v>
@@ -29617,7 +29620,7 @@
         <v>0.53</v>
       </c>
       <c r="AS149">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AT149">
         <v>0.44</v>
@@ -29811,7 +29814,7 @@
         <v>1.76</v>
       </c>
       <c r="AT150">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU150">
         <v>2.53</v>
@@ -29912,7 +29915,7 @@
         <v>78</v>
       </c>
       <c r="P151" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q151">
         <v>2</v>
@@ -30294,7 +30297,7 @@
         <v>78</v>
       </c>
       <c r="P153" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q153">
         <v>1</v>
@@ -30384,7 +30387,7 @@
         <v>1</v>
       </c>
       <c r="AT153">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU153">
         <v>1.27</v>
@@ -30572,7 +30575,7 @@
         <v>1.64</v>
       </c>
       <c r="AS154">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT154">
         <v>1.5</v>
@@ -30676,7 +30679,7 @@
         <v>185</v>
       </c>
       <c r="P155" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q155">
         <v>2</v>
@@ -30766,7 +30769,7 @@
         <v>1.59</v>
       </c>
       <c r="AT155">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AU155">
         <v>1.58</v>
@@ -30867,7 +30870,7 @@
         <v>79</v>
       </c>
       <c r="P156" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q156">
         <v>2</v>
@@ -31058,7 +31061,7 @@
         <v>186</v>
       </c>
       <c r="P157" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q157">
         <v>8</v>
@@ -31249,7 +31252,7 @@
         <v>187</v>
       </c>
       <c r="P158" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q158">
         <v>9</v>
@@ -31721,7 +31724,7 @@
         <v>0.61</v>
       </c>
       <c r="AT160">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU160">
         <v>1.37</v>
@@ -32204,7 +32207,7 @@
         <v>191</v>
       </c>
       <c r="P163" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q163">
         <v>10</v>
@@ -32291,7 +32294,7 @@
         <v>1.19</v>
       </c>
       <c r="AS163">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AT163">
         <v>1.12</v>
@@ -32482,7 +32485,7 @@
         <v>0</v>
       </c>
       <c r="AS164">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT164">
         <v>0</v>
@@ -32777,7 +32780,7 @@
         <v>79</v>
       </c>
       <c r="P166" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q166">
         <v>3</v>
@@ -32867,7 +32870,7 @@
         <v>2.12</v>
       </c>
       <c r="AT166">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AU166">
         <v>2.21</v>
@@ -33159,7 +33162,7 @@
         <v>193</v>
       </c>
       <c r="P168" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q168">
         <v>2</v>
@@ -33492,6 +33495,388 @@
       </c>
       <c r="BK169">
         <v>8</v>
+      </c>
+    </row>
+    <row r="170" spans="1:63">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>1586009</v>
+      </c>
+      <c r="C170" t="s">
+        <v>63</v>
+      </c>
+      <c r="D170" t="s">
+        <v>64</v>
+      </c>
+      <c r="E170" s="2">
+        <v>44864.39583333334</v>
+      </c>
+      <c r="F170">
+        <v>34</v>
+      </c>
+      <c r="G170" t="s">
+        <v>68</v>
+      </c>
+      <c r="H170" t="s">
+        <v>74</v>
+      </c>
+      <c r="I170">
+        <v>2</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170">
+        <v>2</v>
+      </c>
+      <c r="L170">
+        <v>2</v>
+      </c>
+      <c r="M170">
+        <v>0</v>
+      </c>
+      <c r="N170">
+        <v>2</v>
+      </c>
+      <c r="O170" t="s">
+        <v>194</v>
+      </c>
+      <c r="P170" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q170">
+        <v>5</v>
+      </c>
+      <c r="R170">
+        <v>5</v>
+      </c>
+      <c r="S170">
+        <v>10</v>
+      </c>
+      <c r="T170">
+        <v>2.88</v>
+      </c>
+      <c r="U170">
+        <v>2.25</v>
+      </c>
+      <c r="V170">
+        <v>3.1</v>
+      </c>
+      <c r="W170">
+        <v>1.3</v>
+      </c>
+      <c r="X170">
+        <v>3.2</v>
+      </c>
+      <c r="Y170">
+        <v>2.55</v>
+      </c>
+      <c r="Z170">
+        <v>1.44</v>
+      </c>
+      <c r="AA170">
+        <v>5.6</v>
+      </c>
+      <c r="AB170">
+        <v>1.11</v>
+      </c>
+      <c r="AC170">
+        <v>2.21</v>
+      </c>
+      <c r="AD170">
+        <v>3.36</v>
+      </c>
+      <c r="AE170">
+        <v>2.38</v>
+      </c>
+      <c r="AF170">
+        <v>1.03</v>
+      </c>
+      <c r="AG170">
+        <v>15.25</v>
+      </c>
+      <c r="AH170">
+        <v>1.19</v>
+      </c>
+      <c r="AI170">
+        <v>4.25</v>
+      </c>
+      <c r="AJ170">
+        <v>1.68</v>
+      </c>
+      <c r="AK170">
+        <v>2.08</v>
+      </c>
+      <c r="AL170">
+        <v>1.58</v>
+      </c>
+      <c r="AM170">
+        <v>2.32</v>
+      </c>
+      <c r="AN170">
+        <v>1.44</v>
+      </c>
+      <c r="AO170">
+        <v>1.23</v>
+      </c>
+      <c r="AP170">
+        <v>1.52</v>
+      </c>
+      <c r="AQ170">
+        <v>1.25</v>
+      </c>
+      <c r="AR170">
+        <v>0.88</v>
+      </c>
+      <c r="AS170">
+        <v>1.35</v>
+      </c>
+      <c r="AT170">
+        <v>0.82</v>
+      </c>
+      <c r="AU170">
+        <v>1.52</v>
+      </c>
+      <c r="AV170">
+        <v>1.69</v>
+      </c>
+      <c r="AW170">
+        <v>3.21</v>
+      </c>
+      <c r="AX170">
+        <v>0</v>
+      </c>
+      <c r="AY170">
+        <v>0</v>
+      </c>
+      <c r="AZ170">
+        <v>0</v>
+      </c>
+      <c r="BA170">
+        <v>0</v>
+      </c>
+      <c r="BB170">
+        <v>0</v>
+      </c>
+      <c r="BC170">
+        <v>0</v>
+      </c>
+      <c r="BD170">
+        <v>0</v>
+      </c>
+      <c r="BE170">
+        <v>0</v>
+      </c>
+      <c r="BF170">
+        <v>3</v>
+      </c>
+      <c r="BG170">
+        <v>2</v>
+      </c>
+      <c r="BH170">
+        <v>9</v>
+      </c>
+      <c r="BI170">
+        <v>7</v>
+      </c>
+      <c r="BJ170">
+        <v>12</v>
+      </c>
+      <c r="BK170">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="171" spans="1:63">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>1586010</v>
+      </c>
+      <c r="C171" t="s">
+        <v>63</v>
+      </c>
+      <c r="D171" t="s">
+        <v>64</v>
+      </c>
+      <c r="E171" s="2">
+        <v>44864.51041666666</v>
+      </c>
+      <c r="F171">
+        <v>34</v>
+      </c>
+      <c r="G171" t="s">
+        <v>71</v>
+      </c>
+      <c r="H171" t="s">
+        <v>72</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171">
+        <v>0</v>
+      </c>
+      <c r="L171">
+        <v>1</v>
+      </c>
+      <c r="M171">
+        <v>0</v>
+      </c>
+      <c r="N171">
+        <v>1</v>
+      </c>
+      <c r="O171" t="s">
+        <v>79</v>
+      </c>
+      <c r="P171" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q171">
+        <v>6</v>
+      </c>
+      <c r="R171">
+        <v>4</v>
+      </c>
+      <c r="S171">
+        <v>10</v>
+      </c>
+      <c r="T171">
+        <v>2.5</v>
+      </c>
+      <c r="U171">
+        <v>2.3</v>
+      </c>
+      <c r="V171">
+        <v>3.75</v>
+      </c>
+      <c r="W171">
+        <v>1.29</v>
+      </c>
+      <c r="X171">
+        <v>3.3</v>
+      </c>
+      <c r="Y171">
+        <v>2.48</v>
+      </c>
+      <c r="Z171">
+        <v>1.46</v>
+      </c>
+      <c r="AA171">
+        <v>5.25</v>
+      </c>
+      <c r="AB171">
+        <v>1.11</v>
+      </c>
+      <c r="AC171">
+        <v>1.81</v>
+      </c>
+      <c r="AD171">
+        <v>3.32</v>
+      </c>
+      <c r="AE171">
+        <v>2.98</v>
+      </c>
+      <c r="AF171">
+        <v>1.03</v>
+      </c>
+      <c r="AG171">
+        <v>16</v>
+      </c>
+      <c r="AH171">
+        <v>1.2</v>
+      </c>
+      <c r="AI171">
+        <v>4.2</v>
+      </c>
+      <c r="AJ171">
+        <v>1.64</v>
+      </c>
+      <c r="AK171">
+        <v>2.14</v>
+      </c>
+      <c r="AL171">
+        <v>1.57</v>
+      </c>
+      <c r="AM171">
+        <v>2.3</v>
+      </c>
+      <c r="AN171">
+        <v>1.25</v>
+      </c>
+      <c r="AO171">
+        <v>1.2</v>
+      </c>
+      <c r="AP171">
+        <v>1.72</v>
+      </c>
+      <c r="AQ171">
+        <v>2.75</v>
+      </c>
+      <c r="AR171">
+        <v>1.94</v>
+      </c>
+      <c r="AS171">
+        <v>2.76</v>
+      </c>
+      <c r="AT171">
+        <v>1.82</v>
+      </c>
+      <c r="AU171">
+        <v>2.48</v>
+      </c>
+      <c r="AV171">
+        <v>2.14</v>
+      </c>
+      <c r="AW171">
+        <v>4.62</v>
+      </c>
+      <c r="AX171">
+        <v>0</v>
+      </c>
+      <c r="AY171">
+        <v>0</v>
+      </c>
+      <c r="AZ171">
+        <v>0</v>
+      </c>
+      <c r="BA171">
+        <v>0</v>
+      </c>
+      <c r="BB171">
+        <v>0</v>
+      </c>
+      <c r="BC171">
+        <v>0</v>
+      </c>
+      <c r="BD171">
+        <v>0</v>
+      </c>
+      <c r="BE171">
+        <v>0</v>
+      </c>
+      <c r="BF171">
+        <v>6</v>
+      </c>
+      <c r="BG171">
+        <v>7</v>
+      </c>
+      <c r="BH171">
+        <v>5</v>
+      </c>
+      <c r="BI171">
+        <v>7</v>
+      </c>
+      <c r="BJ171">
+        <v>11</v>
+      </c>
+      <c r="BK171">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Estonia Meistriliiga_2022.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Estonia Meistriliiga_2022.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="288">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -601,6 +601,21 @@
     <t>['18', '34']</t>
   </si>
   <si>
+    <t>['54']</t>
+  </si>
+  <si>
+    <t>['60']</t>
+  </si>
+  <si>
+    <t>['70']</t>
+  </si>
+  <si>
+    <t>['25', '58']</t>
+  </si>
+  <si>
+    <t>['20', '57']</t>
+  </si>
+  <si>
     <t>['10', '17', '41']</t>
   </si>
   <si>
@@ -736,9 +751,6 @@
     <t>['66', '74']</t>
   </si>
   <si>
-    <t>['54']</t>
-  </si>
-  <si>
     <t>['11']</t>
   </si>
   <si>
@@ -851,6 +863,21 @@
   </si>
   <si>
     <t>['83', '84', '90+6']</t>
+  </si>
+  <si>
+    <t>['45']</t>
+  </si>
+  <si>
+    <t>['61', '80']</t>
+  </si>
+  <si>
+    <t>['11', '31', '67']</t>
+  </si>
+  <si>
+    <t>['7']</t>
+  </si>
+  <si>
+    <t>['32']</t>
   </si>
 </sst>
 </file>
@@ -1212,7 +1239,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK171"/>
+  <dimension ref="A1:BK181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1543,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AT2">
         <v>1</v>
@@ -1647,7 +1674,7 @@
         <v>76</v>
       </c>
       <c r="P3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q3">
         <v>1</v>
@@ -1737,7 +1764,7 @@
         <v>0.61</v>
       </c>
       <c r="AT3">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1928,7 +1955,7 @@
         <v>2.11</v>
       </c>
       <c r="AT4">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2029,7 +2056,7 @@
         <v>78</v>
       </c>
       <c r="P5" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -2116,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT5">
-        <v>2.71</v>
+        <v>2.61</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2220,7 +2247,7 @@
         <v>78</v>
       </c>
       <c r="P6" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -2307,10 +2334,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AT6">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2411,7 +2438,7 @@
         <v>79</v>
       </c>
       <c r="P7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2498,10 +2525,10 @@
         <v>3</v>
       </c>
       <c r="AS7">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT7">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2602,7 +2629,7 @@
         <v>78</v>
       </c>
       <c r="P8" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q8">
         <v>1</v>
@@ -2692,7 +2719,7 @@
         <v>0.61</v>
       </c>
       <c r="AT8">
-        <v>2.47</v>
+        <v>2.33</v>
       </c>
       <c r="AU8">
         <v>0.9399999999999999</v>
@@ -2793,7 +2820,7 @@
         <v>80</v>
       </c>
       <c r="P9" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="Q9">
         <v>9</v>
@@ -2880,10 +2907,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AT9">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU9">
         <v>1.21</v>
@@ -3071,7 +3098,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="AT10">
         <v>1</v>
@@ -3175,7 +3202,7 @@
         <v>82</v>
       </c>
       <c r="P11" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q11">
         <v>9</v>
@@ -3262,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT11">
         <v>1.5</v>
@@ -3366,7 +3393,7 @@
         <v>78</v>
       </c>
       <c r="P12" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q12">
         <v>5</v>
@@ -3453,10 +3480,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT12">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3557,7 +3584,7 @@
         <v>78</v>
       </c>
       <c r="P13" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3644,10 +3671,10 @@
         <v>1</v>
       </c>
       <c r="AS13">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AT13">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3835,7 +3862,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AT14">
         <v>0.44</v>
@@ -4130,7 +4157,7 @@
         <v>85</v>
       </c>
       <c r="P16" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -4217,10 +4244,10 @@
         <v>3</v>
       </c>
       <c r="AS16">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT16">
-        <v>2.71</v>
+        <v>2.61</v>
       </c>
       <c r="AU16">
         <v>2.4</v>
@@ -4321,7 +4348,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q17">
         <v>6</v>
@@ -4411,7 +4438,7 @@
         <v>2.11</v>
       </c>
       <c r="AT17">
-        <v>2.71</v>
+        <v>2.61</v>
       </c>
       <c r="AU17">
         <v>1.99</v>
@@ -4512,7 +4539,7 @@
         <v>87</v>
       </c>
       <c r="P18" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -4599,10 +4626,10 @@
         <v>1.5</v>
       </c>
       <c r="AS18">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AT18">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AU18">
         <v>0.96</v>
@@ -4894,7 +4921,7 @@
         <v>89</v>
       </c>
       <c r="P20" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q20">
         <v>8</v>
@@ -4981,10 +5008,10 @@
         <v>3</v>
       </c>
       <c r="AS20">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT20">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AU20">
         <v>0.7</v>
@@ -5085,7 +5112,7 @@
         <v>78</v>
       </c>
       <c r="P21" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q21">
         <v>4</v>
@@ -5172,10 +5199,10 @@
         <v>3</v>
       </c>
       <c r="AS21">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT21">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AU21">
         <v>0.6899999999999999</v>
@@ -5276,7 +5303,7 @@
         <v>90</v>
       </c>
       <c r="P22" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q22">
         <v>2</v>
@@ -5363,7 +5390,7 @@
         <v>3</v>
       </c>
       <c r="AS22">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AT22">
         <v>1.5</v>
@@ -5554,10 +5581,10 @@
         <v>2</v>
       </c>
       <c r="AS23">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AT23">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU23">
         <v>3.71</v>
@@ -5745,10 +5772,10 @@
         <v>3</v>
       </c>
       <c r="AS24">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="AT24">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU24">
         <v>3.75</v>
@@ -5849,7 +5876,7 @@
         <v>93</v>
       </c>
       <c r="P25" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -5936,7 +5963,7 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT25">
         <v>0</v>
@@ -6127,7 +6154,7 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="AT26">
         <v>0.44</v>
@@ -6231,7 +6258,7 @@
         <v>95</v>
       </c>
       <c r="P27" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q27">
         <v>12</v>
@@ -6318,7 +6345,7 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AT27">
         <v>0</v>
@@ -6509,10 +6536,10 @@
         <v>1.33</v>
       </c>
       <c r="AS28">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT28">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AU28">
         <v>0.87</v>
@@ -6613,7 +6640,7 @@
         <v>97</v>
       </c>
       <c r="P29" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q29">
         <v>8</v>
@@ -6804,7 +6831,7 @@
         <v>78</v>
       </c>
       <c r="P30" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -6891,10 +6918,10 @@
         <v>3</v>
       </c>
       <c r="AS30">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT30">
-        <v>2.47</v>
+        <v>2.33</v>
       </c>
       <c r="AU30">
         <v>2.13</v>
@@ -6995,7 +7022,7 @@
         <v>78</v>
       </c>
       <c r="P31" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7082,10 +7109,10 @@
         <v>3</v>
       </c>
       <c r="AS31">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT31">
-        <v>2.71</v>
+        <v>2.61</v>
       </c>
       <c r="AU31">
         <v>1.61</v>
@@ -7186,7 +7213,7 @@
         <v>98</v>
       </c>
       <c r="P32" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7276,7 +7303,7 @@
         <v>0.61</v>
       </c>
       <c r="AT32">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU32">
         <v>1.35</v>
@@ -7464,7 +7491,7 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT33">
         <v>0.44</v>
@@ -7655,7 +7682,7 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AT34">
         <v>1</v>
@@ -7759,7 +7786,7 @@
         <v>101</v>
       </c>
       <c r="P35" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q35">
         <v>10</v>
@@ -7846,7 +7873,7 @@
         <v>3</v>
       </c>
       <c r="AS35">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AT35">
         <v>1.5</v>
@@ -7950,7 +7977,7 @@
         <v>78</v>
       </c>
       <c r="P36" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8040,7 +8067,7 @@
         <v>0.61</v>
       </c>
       <c r="AT36">
-        <v>2.71</v>
+        <v>2.61</v>
       </c>
       <c r="AU36">
         <v>1.23</v>
@@ -8141,7 +8168,7 @@
         <v>76</v>
       </c>
       <c r="P37" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q37">
         <v>9</v>
@@ -8228,7 +8255,7 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AT37">
         <v>1</v>
@@ -8332,7 +8359,7 @@
         <v>102</v>
       </c>
       <c r="P38" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q38">
         <v>5</v>
@@ -8419,10 +8446,10 @@
         <v>3</v>
       </c>
       <c r="AS38">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AT38">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AU38">
         <v>2.04</v>
@@ -8523,7 +8550,7 @@
         <v>103</v>
       </c>
       <c r="P39" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q39">
         <v>4</v>
@@ -8610,7 +8637,7 @@
         <v>2.33</v>
       </c>
       <c r="AS39">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT39">
         <v>1.5</v>
@@ -8801,10 +8828,10 @@
         <v>1</v>
       </c>
       <c r="AS40">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AT40">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AU40">
         <v>3.04</v>
@@ -8905,7 +8932,7 @@
         <v>78</v>
       </c>
       <c r="P41" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q41">
         <v>2</v>
@@ -8992,10 +9019,10 @@
         <v>3</v>
       </c>
       <c r="AS41">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AT41">
-        <v>2.47</v>
+        <v>2.33</v>
       </c>
       <c r="AU41">
         <v>2.07</v>
@@ -9183,10 +9210,10 @@
         <v>1.75</v>
       </c>
       <c r="AS42">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT42">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU42">
         <v>1.07</v>
@@ -9374,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="AS43">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AT43">
         <v>0</v>
@@ -9478,7 +9505,7 @@
         <v>107</v>
       </c>
       <c r="P44" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q44">
         <v>0</v>
@@ -9565,10 +9592,10 @@
         <v>3</v>
       </c>
       <c r="AS44">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT44">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AU44">
         <v>1.53</v>
@@ -9759,7 +9786,7 @@
         <v>2.11</v>
       </c>
       <c r="AT45">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU45">
         <v>1.83</v>
@@ -9947,10 +9974,10 @@
         <v>3</v>
       </c>
       <c r="AS46">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="AT46">
-        <v>2.47</v>
+        <v>2.33</v>
       </c>
       <c r="AU46">
         <v>2.66</v>
@@ -10051,7 +10078,7 @@
         <v>78</v>
       </c>
       <c r="P47" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q47">
         <v>8</v>
@@ -10138,10 +10165,10 @@
         <v>0.8</v>
       </c>
       <c r="AS47">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AT47">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AU47">
         <v>1.91</v>
@@ -10520,10 +10547,10 @@
         <v>2.25</v>
       </c>
       <c r="AS49">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT49">
-        <v>2.47</v>
+        <v>2.33</v>
       </c>
       <c r="AU49">
         <v>1.08</v>
@@ -10624,7 +10651,7 @@
         <v>111</v>
       </c>
       <c r="P50" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q50">
         <v>2</v>
@@ -10711,10 +10738,10 @@
         <v>3</v>
       </c>
       <c r="AS50">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT50">
-        <v>2.71</v>
+        <v>2.61</v>
       </c>
       <c r="AU50">
         <v>1.09</v>
@@ -10815,7 +10842,7 @@
         <v>112</v>
       </c>
       <c r="P51" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q51">
         <v>11</v>
@@ -10902,7 +10929,7 @@
         <v>0</v>
       </c>
       <c r="AS51">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT51">
         <v>0</v>
@@ -11093,7 +11120,7 @@
         <v>0</v>
       </c>
       <c r="AS52">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT52">
         <v>0.44</v>
@@ -11197,7 +11224,7 @@
         <v>78</v>
       </c>
       <c r="P53" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -11475,10 +11502,10 @@
         <v>1.5</v>
       </c>
       <c r="AS54">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AT54">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU54">
         <v>2.99</v>
@@ -11666,7 +11693,7 @@
         <v>0.17</v>
       </c>
       <c r="AS55">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT55">
         <v>1</v>
@@ -11770,7 +11797,7 @@
         <v>116</v>
       </c>
       <c r="P56" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -11857,10 +11884,10 @@
         <v>1.4</v>
       </c>
       <c r="AS56">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="AT56">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU56">
         <v>2.39</v>
@@ -11961,7 +11988,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q57">
         <v>4</v>
@@ -12051,7 +12078,7 @@
         <v>0.61</v>
       </c>
       <c r="AT57">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AU57">
         <v>1.08</v>
@@ -12152,7 +12179,7 @@
         <v>78</v>
       </c>
       <c r="P58" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q58">
         <v>0</v>
@@ -12239,10 +12266,10 @@
         <v>2.4</v>
       </c>
       <c r="AS58">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT58">
-        <v>2.47</v>
+        <v>2.33</v>
       </c>
       <c r="AU58">
         <v>1.14</v>
@@ -12430,10 +12457,10 @@
         <v>1.2</v>
       </c>
       <c r="AS59">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AT59">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU59">
         <v>1.33</v>
@@ -12624,7 +12651,7 @@
         <v>2.11</v>
       </c>
       <c r="AT60">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU60">
         <v>1.85</v>
@@ -12812,10 +12839,10 @@
         <v>2.4</v>
       </c>
       <c r="AS61">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="AT61">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AU61">
         <v>2.37</v>
@@ -13003,7 +13030,7 @@
         <v>0</v>
       </c>
       <c r="AS62">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT62">
         <v>0</v>
@@ -13194,7 +13221,7 @@
         <v>0.14</v>
       </c>
       <c r="AS63">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT63">
         <v>1</v>
@@ -13385,10 +13412,10 @@
         <v>2.17</v>
       </c>
       <c r="AS64">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AT64">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AU64">
         <v>2.98</v>
@@ -13489,7 +13516,7 @@
         <v>123</v>
       </c>
       <c r="P65" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q65">
         <v>8</v>
@@ -13576,7 +13603,7 @@
         <v>0.13</v>
       </c>
       <c r="AS65">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT65">
         <v>1</v>
@@ -13767,10 +13794,10 @@
         <v>1</v>
       </c>
       <c r="AS66">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="AT66">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AU66">
         <v>2.17</v>
@@ -13871,7 +13898,7 @@
         <v>125</v>
       </c>
       <c r="P67" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q67">
         <v>5</v>
@@ -13958,10 +13985,10 @@
         <v>1</v>
       </c>
       <c r="AS67">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT67">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU67">
         <v>2.67</v>
@@ -14343,7 +14370,7 @@
         <v>2.11</v>
       </c>
       <c r="AT69">
-        <v>2.47</v>
+        <v>2.33</v>
       </c>
       <c r="AU69">
         <v>1.91</v>
@@ -14444,7 +14471,7 @@
         <v>79</v>
       </c>
       <c r="P70" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q70">
         <v>6</v>
@@ -14531,7 +14558,7 @@
         <v>2.2</v>
       </c>
       <c r="AS70">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT70">
         <v>1.5</v>
@@ -14635,7 +14662,7 @@
         <v>127</v>
       </c>
       <c r="P71" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -14722,10 +14749,10 @@
         <v>2.57</v>
       </c>
       <c r="AS71">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AT71">
-        <v>2.47</v>
+        <v>2.33</v>
       </c>
       <c r="AU71">
         <v>1.36</v>
@@ -14913,10 +14940,10 @@
         <v>1</v>
       </c>
       <c r="AS72">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT72">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU72">
         <v>2.63</v>
@@ -15104,7 +15131,7 @@
         <v>0</v>
       </c>
       <c r="AS73">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT73">
         <v>0</v>
@@ -15208,7 +15235,7 @@
         <v>78</v>
       </c>
       <c r="P74" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q74">
         <v>1</v>
@@ -15295,10 +15322,10 @@
         <v>3</v>
       </c>
       <c r="AS74">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AT74">
-        <v>2.71</v>
+        <v>2.61</v>
       </c>
       <c r="AU74">
         <v>1.82</v>
@@ -15399,7 +15426,7 @@
         <v>130</v>
       </c>
       <c r="P75" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -15486,7 +15513,7 @@
         <v>0.17</v>
       </c>
       <c r="AS75">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT75">
         <v>0.44</v>
@@ -15680,7 +15707,7 @@
         <v>2.11</v>
       </c>
       <c r="AT76">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AU76">
         <v>1.77</v>
@@ -15781,7 +15808,7 @@
         <v>132</v>
       </c>
       <c r="P77" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q77">
         <v>4</v>
@@ -15868,10 +15895,10 @@
         <v>3</v>
       </c>
       <c r="AS77">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AT77">
-        <v>2.71</v>
+        <v>2.61</v>
       </c>
       <c r="AU77">
         <v>2.65</v>
@@ -16059,10 +16086,10 @@
         <v>0.88</v>
       </c>
       <c r="AS78">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT78">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU78">
         <v>1.6</v>
@@ -16163,7 +16190,7 @@
         <v>134</v>
       </c>
       <c r="P79" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q79">
         <v>10</v>
@@ -16250,7 +16277,7 @@
         <v>0</v>
       </c>
       <c r="AS79">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AT79">
         <v>0</v>
@@ -16441,7 +16468,7 @@
         <v>0.44</v>
       </c>
       <c r="AS80">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AT80">
         <v>1</v>
@@ -16632,10 +16659,10 @@
         <v>0.88</v>
       </c>
       <c r="AS81">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT81">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AU81">
         <v>2.59</v>
@@ -16736,7 +16763,7 @@
         <v>132</v>
       </c>
       <c r="P82" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q82">
         <v>6</v>
@@ -16823,7 +16850,7 @@
         <v>0.29</v>
       </c>
       <c r="AS82">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT82">
         <v>0.44</v>
@@ -17014,7 +17041,7 @@
         <v>2</v>
       </c>
       <c r="AS83">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="AT83">
         <v>1.5</v>
@@ -17205,10 +17232,10 @@
         <v>2.63</v>
       </c>
       <c r="AS84">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT84">
-        <v>2.47</v>
+        <v>2.33</v>
       </c>
       <c r="AU84">
         <v>1.6</v>
@@ -17309,7 +17336,7 @@
         <v>78</v>
       </c>
       <c r="P85" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q85">
         <v>3</v>
@@ -17396,7 +17423,7 @@
         <v>1.71</v>
       </c>
       <c r="AS85">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT85">
         <v>1.5</v>
@@ -17587,10 +17614,10 @@
         <v>0.86</v>
       </c>
       <c r="AS86">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT86">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU86">
         <v>1.3</v>
@@ -17691,7 +17718,7 @@
         <v>139</v>
       </c>
       <c r="P87" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q87">
         <v>11</v>
@@ -17778,7 +17805,7 @@
         <v>0</v>
       </c>
       <c r="AS87">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="AT87">
         <v>0</v>
@@ -17882,7 +17909,7 @@
         <v>140</v>
       </c>
       <c r="P88" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q88">
         <v>3</v>
@@ -17969,10 +17996,10 @@
         <v>1.63</v>
       </c>
       <c r="AS88">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AT88">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AU88">
         <v>1.32</v>
@@ -18073,7 +18100,7 @@
         <v>141</v>
       </c>
       <c r="P89" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q89">
         <v>7</v>
@@ -18160,7 +18187,7 @@
         <v>0.5</v>
       </c>
       <c r="AS89">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AT89">
         <v>1</v>
@@ -18351,10 +18378,10 @@
         <v>1.78</v>
       </c>
       <c r="AS90">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AT90">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AU90">
         <v>1.6</v>
@@ -18455,7 +18482,7 @@
         <v>78</v>
       </c>
       <c r="P91" t="s">
-        <v>240</v>
+        <v>195</v>
       </c>
       <c r="Q91">
         <v>3</v>
@@ -18542,10 +18569,10 @@
         <v>2.75</v>
       </c>
       <c r="AS91">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AT91">
-        <v>2.71</v>
+        <v>2.61</v>
       </c>
       <c r="AU91">
         <v>1.39</v>
@@ -18646,7 +18673,7 @@
         <v>143</v>
       </c>
       <c r="P92" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q92">
         <v>4</v>
@@ -18736,7 +18763,7 @@
         <v>0.61</v>
       </c>
       <c r="AT92">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU92">
         <v>1.27</v>
@@ -18837,7 +18864,7 @@
         <v>144</v>
       </c>
       <c r="P93" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q93">
         <v>11</v>
@@ -18927,7 +18954,7 @@
         <v>2.11</v>
       </c>
       <c r="AT93">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AU93">
         <v>1.71</v>
@@ -19028,7 +19055,7 @@
         <v>145</v>
       </c>
       <c r="P94" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q94">
         <v>2</v>
@@ -19118,7 +19145,7 @@
         <v>0.61</v>
       </c>
       <c r="AT94">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU94">
         <v>1.23</v>
@@ -19219,7 +19246,7 @@
         <v>78</v>
       </c>
       <c r="P95" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q95">
         <v>0</v>
@@ -19306,10 +19333,10 @@
         <v>2.44</v>
       </c>
       <c r="AS95">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT95">
-        <v>2.47</v>
+        <v>2.33</v>
       </c>
       <c r="AU95">
         <v>1.37</v>
@@ -19410,7 +19437,7 @@
         <v>146</v>
       </c>
       <c r="P96" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q96">
         <v>11</v>
@@ -19500,7 +19527,7 @@
         <v>2.11</v>
       </c>
       <c r="AT96">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU96">
         <v>1.83</v>
@@ -19688,7 +19715,7 @@
         <v>0.63</v>
       </c>
       <c r="AS97">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT97">
         <v>0.44</v>
@@ -19879,7 +19906,7 @@
         <v>0.45</v>
       </c>
       <c r="AS98">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="AT98">
         <v>1</v>
@@ -19983,7 +20010,7 @@
         <v>78</v>
       </c>
       <c r="P99" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q99">
         <v>3</v>
@@ -20070,10 +20097,10 @@
         <v>2.78</v>
       </c>
       <c r="AS99">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AT99">
-        <v>2.71</v>
+        <v>2.61</v>
       </c>
       <c r="AU99">
         <v>1.31</v>
@@ -20261,7 +20288,7 @@
         <v>1.88</v>
       </c>
       <c r="AS100">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AT100">
         <v>1.5</v>
@@ -20365,7 +20392,7 @@
         <v>78</v>
       </c>
       <c r="P101" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q101">
         <v>2</v>
@@ -20556,7 +20583,7 @@
         <v>150</v>
       </c>
       <c r="P102" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -20643,10 +20670,10 @@
         <v>1</v>
       </c>
       <c r="AS102">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT102">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU102">
         <v>1.21</v>
@@ -20834,10 +20861,10 @@
         <v>0.8</v>
       </c>
       <c r="AS103">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT103">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU103">
         <v>2.58</v>
@@ -21025,7 +21052,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS104">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AT104">
         <v>0.44</v>
@@ -21129,7 +21156,7 @@
         <v>153</v>
       </c>
       <c r="P105" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q105">
         <v>2</v>
@@ -21216,10 +21243,10 @@
         <v>2.8</v>
       </c>
       <c r="AS105">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT105">
-        <v>2.71</v>
+        <v>2.61</v>
       </c>
       <c r="AU105">
         <v>1.62</v>
@@ -21320,7 +21347,7 @@
         <v>78</v>
       </c>
       <c r="P106" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q106">
         <v>2</v>
@@ -21407,10 +21434,10 @@
         <v>2.82</v>
       </c>
       <c r="AS106">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT106">
-        <v>2.71</v>
+        <v>2.61</v>
       </c>
       <c r="AU106">
         <v>1.29</v>
@@ -21511,7 +21538,7 @@
         <v>78</v>
       </c>
       <c r="P107" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q107">
         <v>5</v>
@@ -21601,7 +21628,7 @@
         <v>0.61</v>
       </c>
       <c r="AT107">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AU107">
         <v>1.26</v>
@@ -21980,10 +22007,10 @@
         <v>2.5</v>
       </c>
       <c r="AS109">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AT109">
-        <v>2.47</v>
+        <v>2.33</v>
       </c>
       <c r="AU109">
         <v>1.47</v>
@@ -22171,7 +22198,7 @@
         <v>0</v>
       </c>
       <c r="AS110">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AT110">
         <v>0</v>
@@ -22275,7 +22302,7 @@
         <v>156</v>
       </c>
       <c r="P111" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q111">
         <v>5</v>
@@ -22362,7 +22389,7 @@
         <v>1.8</v>
       </c>
       <c r="AS111">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AT111">
         <v>1.5</v>
@@ -22466,7 +22493,7 @@
         <v>157</v>
       </c>
       <c r="P112" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q112">
         <v>9</v>
@@ -22553,10 +22580,10 @@
         <v>0.91</v>
       </c>
       <c r="AS112">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="AT112">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU112">
         <v>2.46</v>
@@ -22657,7 +22684,7 @@
         <v>158</v>
       </c>
       <c r="P113" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q113">
         <v>7</v>
@@ -22744,10 +22771,10 @@
         <v>0.73</v>
       </c>
       <c r="AS113">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT113">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU113">
         <v>1.26</v>
@@ -22935,10 +22962,10 @@
         <v>1</v>
       </c>
       <c r="AS114">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT114">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AU114">
         <v>2.49</v>
@@ -23039,7 +23066,7 @@
         <v>159</v>
       </c>
       <c r="P115" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q115">
         <v>10</v>
@@ -23126,7 +23153,7 @@
         <v>0</v>
       </c>
       <c r="AS115">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT115">
         <v>0</v>
@@ -23230,7 +23257,7 @@
         <v>160</v>
       </c>
       <c r="P116" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -23317,10 +23344,10 @@
         <v>1.7</v>
       </c>
       <c r="AS116">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT116">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AU116">
         <v>1.32</v>
@@ -23421,7 +23448,7 @@
         <v>161</v>
       </c>
       <c r="P117" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q117">
         <v>7</v>
@@ -23508,7 +23535,7 @@
         <v>0.5</v>
       </c>
       <c r="AS117">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AT117">
         <v>0.44</v>
@@ -23612,7 +23639,7 @@
         <v>162</v>
       </c>
       <c r="P118" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q118">
         <v>9</v>
@@ -23699,7 +23726,7 @@
         <v>0</v>
       </c>
       <c r="AS118">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="AT118">
         <v>0</v>
@@ -23893,7 +23920,7 @@
         <v>2.11</v>
       </c>
       <c r="AT119">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU119">
         <v>1.85</v>
@@ -23994,7 +24021,7 @@
         <v>164</v>
       </c>
       <c r="P120" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q120">
         <v>5</v>
@@ -24081,10 +24108,10 @@
         <v>2.55</v>
       </c>
       <c r="AS120">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT120">
-        <v>2.47</v>
+        <v>2.33</v>
       </c>
       <c r="AU120">
         <v>1.59</v>
@@ -24185,7 +24212,7 @@
         <v>165</v>
       </c>
       <c r="P121" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q121">
         <v>2</v>
@@ -24463,10 +24490,10 @@
         <v>0.92</v>
       </c>
       <c r="AS122">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT122">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU122">
         <v>1.59</v>
@@ -24654,7 +24681,7 @@
         <v>0.45</v>
       </c>
       <c r="AS123">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT123">
         <v>0.44</v>
@@ -24758,7 +24785,7 @@
         <v>168</v>
       </c>
       <c r="P124" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q124">
         <v>2</v>
@@ -24845,10 +24872,10 @@
         <v>2.83</v>
       </c>
       <c r="AS124">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT124">
-        <v>2.71</v>
+        <v>2.61</v>
       </c>
       <c r="AU124">
         <v>2.54</v>
@@ -25036,7 +25063,7 @@
         <v>1.91</v>
       </c>
       <c r="AS125">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AT125">
         <v>1.5</v>
@@ -25227,7 +25254,7 @@
         <v>0</v>
       </c>
       <c r="AS126">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AT126">
         <v>0</v>
@@ -25331,7 +25358,7 @@
         <v>170</v>
       </c>
       <c r="P127" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q127">
         <v>7</v>
@@ -25418,7 +25445,7 @@
         <v>0.57</v>
       </c>
       <c r="AS127">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AT127">
         <v>1</v>
@@ -25522,7 +25549,7 @@
         <v>171</v>
       </c>
       <c r="P128" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -25609,10 +25636,10 @@
         <v>1</v>
       </c>
       <c r="AS128">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT128">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AU128">
         <v>1.37</v>
@@ -25800,10 +25827,10 @@
         <v>2.58</v>
       </c>
       <c r="AS129">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT129">
-        <v>2.47</v>
+        <v>2.33</v>
       </c>
       <c r="AU129">
         <v>2.5</v>
@@ -25991,7 +26018,7 @@
         <v>1.83</v>
       </c>
       <c r="AS130">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="AT130">
         <v>1.5</v>
@@ -26182,10 +26209,10 @@
         <v>0.92</v>
       </c>
       <c r="AS131">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AT131">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU131">
         <v>1.42</v>
@@ -26286,7 +26313,7 @@
         <v>173</v>
       </c>
       <c r="P132" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q132">
         <v>3</v>
@@ -26376,7 +26403,7 @@
         <v>2.11</v>
       </c>
       <c r="AT132">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AU132">
         <v>1.84</v>
@@ -26477,7 +26504,7 @@
         <v>174</v>
       </c>
       <c r="P133" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q133">
         <v>4</v>
@@ -26564,10 +26591,10 @@
         <v>1</v>
       </c>
       <c r="AS133">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT133">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AU133">
         <v>1.34</v>
@@ -26668,7 +26695,7 @@
         <v>85</v>
       </c>
       <c r="P134" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q134">
         <v>2</v>
@@ -26755,10 +26782,10 @@
         <v>2.85</v>
       </c>
       <c r="AS134">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AT134">
-        <v>2.71</v>
+        <v>2.61</v>
       </c>
       <c r="AU134">
         <v>2.42</v>
@@ -27137,10 +27164,10 @@
         <v>0.93</v>
       </c>
       <c r="AS136">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="AT136">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU136">
         <v>2.51</v>
@@ -27328,7 +27355,7 @@
         <v>1.69</v>
       </c>
       <c r="AS137">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT137">
         <v>1.5</v>
@@ -27432,7 +27459,7 @@
         <v>175</v>
       </c>
       <c r="P138" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -27522,7 +27549,7 @@
         <v>0.61</v>
       </c>
       <c r="AT138">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AU138">
         <v>1.38</v>
@@ -27623,7 +27650,7 @@
         <v>78</v>
       </c>
       <c r="P139" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q139">
         <v>3</v>
@@ -27710,10 +27737,10 @@
         <v>2.46</v>
       </c>
       <c r="AS139">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT139">
-        <v>2.47</v>
+        <v>2.33</v>
       </c>
       <c r="AU139">
         <v>1.32</v>
@@ -27901,7 +27928,7 @@
         <v>0.62</v>
       </c>
       <c r="AS140">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AT140">
         <v>0.44</v>
@@ -28005,7 +28032,7 @@
         <v>177</v>
       </c>
       <c r="P141" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q141">
         <v>7</v>
@@ -28092,10 +28119,10 @@
         <v>2</v>
       </c>
       <c r="AS141">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AT141">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AU141">
         <v>1.38</v>
@@ -28387,7 +28414,7 @@
         <v>78</v>
       </c>
       <c r="P143" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q143">
         <v>1</v>
@@ -28474,10 +28501,10 @@
         <v>2.86</v>
       </c>
       <c r="AS143">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AT143">
-        <v>2.71</v>
+        <v>2.61</v>
       </c>
       <c r="AU143">
         <v>1.56</v>
@@ -28578,7 +28605,7 @@
         <v>175</v>
       </c>
       <c r="P144" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q144">
         <v>18</v>
@@ -28665,7 +28692,7 @@
         <v>0.73</v>
       </c>
       <c r="AS144">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT144">
         <v>1</v>
@@ -28769,7 +28796,7 @@
         <v>179</v>
       </c>
       <c r="P145" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q145">
         <v>10</v>
@@ -28856,10 +28883,10 @@
         <v>1.14</v>
       </c>
       <c r="AS145">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AT145">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AU145">
         <v>2.3</v>
@@ -29047,7 +29074,7 @@
         <v>0.57</v>
       </c>
       <c r="AS146">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT146">
         <v>0.44</v>
@@ -29238,7 +29265,7 @@
         <v>0</v>
       </c>
       <c r="AS147">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT147">
         <v>0</v>
@@ -29342,7 +29369,7 @@
         <v>181</v>
       </c>
       <c r="P148" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q148">
         <v>7</v>
@@ -29429,10 +29456,10 @@
         <v>0.87</v>
       </c>
       <c r="AS148">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT148">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU148">
         <v>1.61</v>
@@ -29620,7 +29647,7 @@
         <v>0.53</v>
       </c>
       <c r="AS149">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="AT149">
         <v>0.44</v>
@@ -29811,10 +29838,10 @@
         <v>0.85</v>
       </c>
       <c r="AS150">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT150">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU150">
         <v>2.53</v>
@@ -29915,7 +29942,7 @@
         <v>78</v>
       </c>
       <c r="P151" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q151">
         <v>2</v>
@@ -30005,7 +30032,7 @@
         <v>2.11</v>
       </c>
       <c r="AT151">
-        <v>2.47</v>
+        <v>2.33</v>
       </c>
       <c r="AU151">
         <v>1.86</v>
@@ -30193,10 +30220,10 @@
         <v>2.53</v>
       </c>
       <c r="AS152">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AT152">
-        <v>2.47</v>
+        <v>2.33</v>
       </c>
       <c r="AU152">
         <v>1.35</v>
@@ -30297,7 +30324,7 @@
         <v>78</v>
       </c>
       <c r="P153" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q153">
         <v>1</v>
@@ -30384,10 +30411,10 @@
         <v>0.79</v>
       </c>
       <c r="AS153">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT153">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU153">
         <v>1.27</v>
@@ -30575,7 +30602,7 @@
         <v>1.64</v>
       </c>
       <c r="AS154">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT154">
         <v>1.5</v>
@@ -30679,7 +30706,7 @@
         <v>185</v>
       </c>
       <c r="P155" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q155">
         <v>2</v>
@@ -30766,10 +30793,10 @@
         <v>1.93</v>
       </c>
       <c r="AS155">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT155">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AU155">
         <v>1.58</v>
@@ -30870,7 +30897,7 @@
         <v>79</v>
       </c>
       <c r="P156" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q156">
         <v>2</v>
@@ -30960,7 +30987,7 @@
         <v>0.61</v>
       </c>
       <c r="AT156">
-        <v>2.71</v>
+        <v>2.61</v>
       </c>
       <c r="AU156">
         <v>1.37</v>
@@ -31061,7 +31088,7 @@
         <v>186</v>
       </c>
       <c r="P157" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q157">
         <v>8</v>
@@ -31148,10 +31175,10 @@
         <v>1.27</v>
       </c>
       <c r="AS157">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AT157">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AU157">
         <v>1.36</v>
@@ -31252,7 +31279,7 @@
         <v>187</v>
       </c>
       <c r="P158" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q158">
         <v>9</v>
@@ -31339,7 +31366,7 @@
         <v>0.88</v>
       </c>
       <c r="AS158">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT158">
         <v>1</v>
@@ -31530,10 +31557,10 @@
         <v>0.88</v>
       </c>
       <c r="AS159">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AT159">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU159">
         <v>2.28</v>
@@ -31724,7 +31751,7 @@
         <v>0.61</v>
       </c>
       <c r="AT160">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU160">
         <v>1.37</v>
@@ -31915,7 +31942,7 @@
         <v>2.11</v>
       </c>
       <c r="AT161">
-        <v>2.71</v>
+        <v>2.61</v>
       </c>
       <c r="AU161">
         <v>1.85</v>
@@ -32103,7 +32130,7 @@
         <v>0.5</v>
       </c>
       <c r="AS162">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT162">
         <v>0.44</v>
@@ -32207,7 +32234,7 @@
         <v>191</v>
       </c>
       <c r="P163" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q163">
         <v>10</v>
@@ -32294,10 +32321,10 @@
         <v>1.19</v>
       </c>
       <c r="AS163">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="AT163">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AU163">
         <v>2.49</v>
@@ -32485,7 +32512,7 @@
         <v>0</v>
       </c>
       <c r="AS164">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT164">
         <v>0</v>
@@ -32676,7 +32703,7 @@
         <v>1.53</v>
       </c>
       <c r="AS165">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AT165">
         <v>1.5</v>
@@ -32780,7 +32807,7 @@
         <v>79</v>
       </c>
       <c r="P166" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q166">
         <v>3</v>
@@ -32867,10 +32894,10 @@
         <v>1.87</v>
       </c>
       <c r="AS166">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AT166">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AU166">
         <v>2.21</v>
@@ -33058,7 +33085,7 @@
         <v>1</v>
       </c>
       <c r="AS167">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT167">
         <v>1</v>
@@ -33162,7 +33189,7 @@
         <v>193</v>
       </c>
       <c r="P168" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q168">
         <v>2</v>
@@ -33252,7 +33279,7 @@
         <v>0.61</v>
       </c>
       <c r="AT168">
-        <v>2.47</v>
+        <v>2.33</v>
       </c>
       <c r="AU168">
         <v>1.38</v>
@@ -33631,10 +33658,10 @@
         <v>0.88</v>
       </c>
       <c r="AS170">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT170">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU170">
         <v>1.52</v>
@@ -33822,10 +33849,10 @@
         <v>1.94</v>
       </c>
       <c r="AS171">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="AT171">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AU171">
         <v>2.48</v>
@@ -33877,6 +33904,1916 @@
       </c>
       <c r="BK171">
         <v>14</v>
+      </c>
+    </row>
+    <row r="172" spans="1:63">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>1586011</v>
+      </c>
+      <c r="C172" t="s">
+        <v>63</v>
+      </c>
+      <c r="D172" t="s">
+        <v>64</v>
+      </c>
+      <c r="E172" s="2">
+        <v>44870.38541666666</v>
+      </c>
+      <c r="F172">
+        <v>35</v>
+      </c>
+      <c r="G172" t="s">
+        <v>73</v>
+      </c>
+      <c r="H172" t="s">
+        <v>71</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <v>0</v>
+      </c>
+      <c r="L172">
+        <v>1</v>
+      </c>
+      <c r="M172">
+        <v>1</v>
+      </c>
+      <c r="N172">
+        <v>2</v>
+      </c>
+      <c r="O172" t="s">
+        <v>118</v>
+      </c>
+      <c r="P172" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q172">
+        <v>2</v>
+      </c>
+      <c r="R172">
+        <v>10</v>
+      </c>
+      <c r="S172">
+        <v>12</v>
+      </c>
+      <c r="T172">
+        <v>12</v>
+      </c>
+      <c r="U172">
+        <v>3.4</v>
+      </c>
+      <c r="V172">
+        <v>1.36</v>
+      </c>
+      <c r="W172">
+        <v>1.17</v>
+      </c>
+      <c r="X172">
+        <v>4.4</v>
+      </c>
+      <c r="Y172">
+        <v>1.85</v>
+      </c>
+      <c r="Z172">
+        <v>1.85</v>
+      </c>
+      <c r="AA172">
+        <v>3.6</v>
+      </c>
+      <c r="AB172">
+        <v>1.25</v>
+      </c>
+      <c r="AC172">
+        <v>13</v>
+      </c>
+      <c r="AD172">
+        <v>7</v>
+      </c>
+      <c r="AE172">
+        <v>1.1</v>
+      </c>
+      <c r="AF172">
+        <v>1.01</v>
+      </c>
+      <c r="AG172">
+        <v>41</v>
+      </c>
+      <c r="AH172">
+        <v>1.07</v>
+      </c>
+      <c r="AI172">
+        <v>6.7</v>
+      </c>
+      <c r="AJ172">
+        <v>1.27</v>
+      </c>
+      <c r="AK172">
+        <v>3.41</v>
+      </c>
+      <c r="AL172">
+        <v>1.95</v>
+      </c>
+      <c r="AM172">
+        <v>1.78</v>
+      </c>
+      <c r="AN172">
+        <v>6</v>
+      </c>
+      <c r="AO172">
+        <v>1.04</v>
+      </c>
+      <c r="AP172">
+        <v>1.01</v>
+      </c>
+      <c r="AQ172">
+        <v>1</v>
+      </c>
+      <c r="AR172">
+        <v>2.71</v>
+      </c>
+      <c r="AS172">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT172">
+        <v>2.61</v>
+      </c>
+      <c r="AU172">
+        <v>1.28</v>
+      </c>
+      <c r="AV172">
+        <v>2.08</v>
+      </c>
+      <c r="AW172">
+        <v>3.36</v>
+      </c>
+      <c r="AX172">
+        <v>0</v>
+      </c>
+      <c r="AY172">
+        <v>0</v>
+      </c>
+      <c r="AZ172">
+        <v>0</v>
+      </c>
+      <c r="BA172">
+        <v>0</v>
+      </c>
+      <c r="BB172">
+        <v>0</v>
+      </c>
+      <c r="BC172">
+        <v>0</v>
+      </c>
+      <c r="BD172">
+        <v>0</v>
+      </c>
+      <c r="BE172">
+        <v>0</v>
+      </c>
+      <c r="BF172">
+        <v>2</v>
+      </c>
+      <c r="BG172">
+        <v>14</v>
+      </c>
+      <c r="BH172">
+        <v>2</v>
+      </c>
+      <c r="BI172">
+        <v>10</v>
+      </c>
+      <c r="BJ172">
+        <v>4</v>
+      </c>
+      <c r="BK172">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="173" spans="1:63">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>1586012</v>
+      </c>
+      <c r="C173" t="s">
+        <v>63</v>
+      </c>
+      <c r="D173" t="s">
+        <v>64</v>
+      </c>
+      <c r="E173" s="2">
+        <v>44870.5</v>
+      </c>
+      <c r="F173">
+        <v>35</v>
+      </c>
+      <c r="G173" t="s">
+        <v>69</v>
+      </c>
+      <c r="H173" t="s">
+        <v>68</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173">
+        <v>1</v>
+      </c>
+      <c r="K173">
+        <v>1</v>
+      </c>
+      <c r="L173">
+        <v>1</v>
+      </c>
+      <c r="M173">
+        <v>1</v>
+      </c>
+      <c r="N173">
+        <v>2</v>
+      </c>
+      <c r="O173" t="s">
+        <v>195</v>
+      </c>
+      <c r="P173" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q173">
+        <v>3</v>
+      </c>
+      <c r="R173">
+        <v>4</v>
+      </c>
+      <c r="S173">
+        <v>7</v>
+      </c>
+      <c r="T173">
+        <v>3.75</v>
+      </c>
+      <c r="U173">
+        <v>2.25</v>
+      </c>
+      <c r="V173">
+        <v>2.5</v>
+      </c>
+      <c r="W173">
+        <v>1.32</v>
+      </c>
+      <c r="X173">
+        <v>3.05</v>
+      </c>
+      <c r="Y173">
+        <v>2.5</v>
+      </c>
+      <c r="Z173">
+        <v>1.48</v>
+      </c>
+      <c r="AA173">
+        <v>5.5</v>
+      </c>
+      <c r="AB173">
+        <v>1.11</v>
+      </c>
+      <c r="AC173">
+        <v>3.5</v>
+      </c>
+      <c r="AD173">
+        <v>3.55</v>
+      </c>
+      <c r="AE173">
+        <v>1.78</v>
+      </c>
+      <c r="AF173">
+        <v>1.03</v>
+      </c>
+      <c r="AG173">
+        <v>15</v>
+      </c>
+      <c r="AH173">
+        <v>1.21</v>
+      </c>
+      <c r="AI173">
+        <v>3.95</v>
+      </c>
+      <c r="AJ173">
+        <v>1.85</v>
+      </c>
+      <c r="AK173">
+        <v>1.95</v>
+      </c>
+      <c r="AL173">
+        <v>1.62</v>
+      </c>
+      <c r="AM173">
+        <v>2.15</v>
+      </c>
+      <c r="AN173">
+        <v>1.73</v>
+      </c>
+      <c r="AO173">
+        <v>1.22</v>
+      </c>
+      <c r="AP173">
+        <v>1.29</v>
+      </c>
+      <c r="AQ173">
+        <v>0.88</v>
+      </c>
+      <c r="AR173">
+        <v>0.82</v>
+      </c>
+      <c r="AS173">
+        <v>1</v>
+      </c>
+      <c r="AT173">
+        <v>0.83</v>
+      </c>
+      <c r="AU173">
+        <v>1.35</v>
+      </c>
+      <c r="AV173">
+        <v>1.49</v>
+      </c>
+      <c r="AW173">
+        <v>2.84</v>
+      </c>
+      <c r="AX173">
+        <v>0</v>
+      </c>
+      <c r="AY173">
+        <v>0</v>
+      </c>
+      <c r="AZ173">
+        <v>0</v>
+      </c>
+      <c r="BA173">
+        <v>0</v>
+      </c>
+      <c r="BB173">
+        <v>0</v>
+      </c>
+      <c r="BC173">
+        <v>0</v>
+      </c>
+      <c r="BD173">
+        <v>0</v>
+      </c>
+      <c r="BE173">
+        <v>0</v>
+      </c>
+      <c r="BF173">
+        <v>4</v>
+      </c>
+      <c r="BG173">
+        <v>3</v>
+      </c>
+      <c r="BH173">
+        <v>7</v>
+      </c>
+      <c r="BI173">
+        <v>4</v>
+      </c>
+      <c r="BJ173">
+        <v>11</v>
+      </c>
+      <c r="BK173">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174" spans="1:63">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>1586013</v>
+      </c>
+      <c r="C174" t="s">
+        <v>63</v>
+      </c>
+      <c r="D174" t="s">
+        <v>64</v>
+      </c>
+      <c r="E174" s="2">
+        <v>44870.60416666666</v>
+      </c>
+      <c r="F174">
+        <v>35</v>
+      </c>
+      <c r="G174" t="s">
+        <v>65</v>
+      </c>
+      <c r="H174" t="s">
+        <v>74</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174">
+        <v>0</v>
+      </c>
+      <c r="L174">
+        <v>1</v>
+      </c>
+      <c r="M174">
+        <v>1</v>
+      </c>
+      <c r="N174">
+        <v>2</v>
+      </c>
+      <c r="O174" t="s">
+        <v>196</v>
+      </c>
+      <c r="P174" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q174">
+        <v>4</v>
+      </c>
+      <c r="R174">
+        <v>1</v>
+      </c>
+      <c r="S174">
+        <v>5</v>
+      </c>
+      <c r="T174">
+        <v>1.91</v>
+      </c>
+      <c r="U174">
+        <v>2.4</v>
+      </c>
+      <c r="V174">
+        <v>6</v>
+      </c>
+      <c r="W174">
+        <v>1.3</v>
+      </c>
+      <c r="X174">
+        <v>3.15</v>
+      </c>
+      <c r="Y174">
+        <v>2.4</v>
+      </c>
+      <c r="Z174">
+        <v>1.5</v>
+      </c>
+      <c r="AA174">
+        <v>5.25</v>
+      </c>
+      <c r="AB174">
+        <v>1.12</v>
+      </c>
+      <c r="AC174">
+        <v>1.42</v>
+      </c>
+      <c r="AD174">
+        <v>4.1</v>
+      </c>
+      <c r="AE174">
+        <v>5.4</v>
+      </c>
+      <c r="AF174">
+        <v>1.02</v>
+      </c>
+      <c r="AG174">
+        <v>16.5</v>
+      </c>
+      <c r="AH174">
+        <v>1.2</v>
+      </c>
+      <c r="AI174">
+        <v>4.08</v>
+      </c>
+      <c r="AJ174">
+        <v>1.5</v>
+      </c>
+      <c r="AK174">
+        <v>2.41</v>
+      </c>
+      <c r="AL174">
+        <v>1.8</v>
+      </c>
+      <c r="AM174">
+        <v>1.9</v>
+      </c>
+      <c r="AN174">
+        <v>1.13</v>
+      </c>
+      <c r="AO174">
+        <v>1.18</v>
+      </c>
+      <c r="AP174">
+        <v>2.35</v>
+      </c>
+      <c r="AQ174">
+        <v>2.12</v>
+      </c>
+      <c r="AR174">
+        <v>0.82</v>
+      </c>
+      <c r="AS174">
+        <v>2.06</v>
+      </c>
+      <c r="AT174">
+        <v>0.83</v>
+      </c>
+      <c r="AU174">
+        <v>2.18</v>
+      </c>
+      <c r="AV174">
+        <v>1.66</v>
+      </c>
+      <c r="AW174">
+        <v>3.84</v>
+      </c>
+      <c r="AX174">
+        <v>0</v>
+      </c>
+      <c r="AY174">
+        <v>0</v>
+      </c>
+      <c r="AZ174">
+        <v>0</v>
+      </c>
+      <c r="BA174">
+        <v>0</v>
+      </c>
+      <c r="BB174">
+        <v>0</v>
+      </c>
+      <c r="BC174">
+        <v>0</v>
+      </c>
+      <c r="BD174">
+        <v>0</v>
+      </c>
+      <c r="BE174">
+        <v>0</v>
+      </c>
+      <c r="BF174">
+        <v>7</v>
+      </c>
+      <c r="BG174">
+        <v>4</v>
+      </c>
+      <c r="BH174">
+        <v>9</v>
+      </c>
+      <c r="BI174">
+        <v>4</v>
+      </c>
+      <c r="BJ174">
+        <v>16</v>
+      </c>
+      <c r="BK174">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="175" spans="1:63">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>1586014</v>
+      </c>
+      <c r="C175" t="s">
+        <v>63</v>
+      </c>
+      <c r="D175" t="s">
+        <v>64</v>
+      </c>
+      <c r="E175" s="2">
+        <v>44871.39583333334</v>
+      </c>
+      <c r="F175">
+        <v>35</v>
+      </c>
+      <c r="G175" t="s">
+        <v>70</v>
+      </c>
+      <c r="H175" t="s">
+        <v>66</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175">
+        <v>0</v>
+      </c>
+      <c r="L175">
+        <v>1</v>
+      </c>
+      <c r="M175">
+        <v>0</v>
+      </c>
+      <c r="N175">
+        <v>1</v>
+      </c>
+      <c r="O175" t="s">
+        <v>197</v>
+      </c>
+      <c r="P175" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q175">
+        <v>4</v>
+      </c>
+      <c r="R175">
+        <v>2</v>
+      </c>
+      <c r="S175">
+        <v>6</v>
+      </c>
+      <c r="T175">
+        <v>1.95</v>
+      </c>
+      <c r="U175">
+        <v>2.5</v>
+      </c>
+      <c r="V175">
+        <v>5</v>
+      </c>
+      <c r="W175">
+        <v>1.24</v>
+      </c>
+      <c r="X175">
+        <v>3.6</v>
+      </c>
+      <c r="Y175">
+        <v>2.17</v>
+      </c>
+      <c r="Z175">
+        <v>1.61</v>
+      </c>
+      <c r="AA175">
+        <v>4.8</v>
+      </c>
+      <c r="AB175">
+        <v>1.15</v>
+      </c>
+      <c r="AC175">
+        <v>1.45</v>
+      </c>
+      <c r="AD175">
+        <v>4.25</v>
+      </c>
+      <c r="AE175">
+        <v>4.7</v>
+      </c>
+      <c r="AF175">
+        <v>1.02</v>
+      </c>
+      <c r="AG175">
+        <v>20.5</v>
+      </c>
+      <c r="AH175">
+        <v>1.15</v>
+      </c>
+      <c r="AI175">
+        <v>4.68</v>
+      </c>
+      <c r="AJ175">
+        <v>1.5</v>
+      </c>
+      <c r="AK175">
+        <v>2.4</v>
+      </c>
+      <c r="AL175">
+        <v>1.65</v>
+      </c>
+      <c r="AM175">
+        <v>2.18</v>
+      </c>
+      <c r="AN175">
+        <v>1.14</v>
+      </c>
+      <c r="AO175">
+        <v>1.17</v>
+      </c>
+      <c r="AP175">
+        <v>2.35</v>
+      </c>
+      <c r="AQ175">
+        <v>1.59</v>
+      </c>
+      <c r="AR175">
+        <v>0</v>
+      </c>
+      <c r="AS175">
+        <v>1.67</v>
+      </c>
+      <c r="AT175">
+        <v>0</v>
+      </c>
+      <c r="AU175">
+        <v>1.6</v>
+      </c>
+      <c r="AV175">
+        <v>1.08</v>
+      </c>
+      <c r="AW175">
+        <v>2.68</v>
+      </c>
+      <c r="AX175">
+        <v>0</v>
+      </c>
+      <c r="AY175">
+        <v>0</v>
+      </c>
+      <c r="AZ175">
+        <v>0</v>
+      </c>
+      <c r="BA175">
+        <v>0</v>
+      </c>
+      <c r="BB175">
+        <v>0</v>
+      </c>
+      <c r="BC175">
+        <v>0</v>
+      </c>
+      <c r="BD175">
+        <v>0</v>
+      </c>
+      <c r="BE175">
+        <v>0</v>
+      </c>
+      <c r="BF175">
+        <v>7</v>
+      </c>
+      <c r="BG175">
+        <v>6</v>
+      </c>
+      <c r="BH175">
+        <v>8</v>
+      </c>
+      <c r="BI175">
+        <v>6</v>
+      </c>
+      <c r="BJ175">
+        <v>15</v>
+      </c>
+      <c r="BK175">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="176" spans="1:63">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>1586015</v>
+      </c>
+      <c r="C176" t="s">
+        <v>63</v>
+      </c>
+      <c r="D176" t="s">
+        <v>64</v>
+      </c>
+      <c r="E176" s="2">
+        <v>44871.51041666666</v>
+      </c>
+      <c r="F176">
+        <v>35</v>
+      </c>
+      <c r="G176" t="s">
+        <v>72</v>
+      </c>
+      <c r="H176" t="s">
+        <v>67</v>
+      </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
+      <c r="K176">
+        <v>0</v>
+      </c>
+      <c r="L176">
+        <v>1</v>
+      </c>
+      <c r="M176">
+        <v>0</v>
+      </c>
+      <c r="N176">
+        <v>1</v>
+      </c>
+      <c r="O176" t="s">
+        <v>104</v>
+      </c>
+      <c r="P176" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q176">
+        <v>4</v>
+      </c>
+      <c r="R176">
+        <v>5</v>
+      </c>
+      <c r="S176">
+        <v>9</v>
+      </c>
+      <c r="T176">
+        <v>2.5</v>
+      </c>
+      <c r="U176">
+        <v>2.25</v>
+      </c>
+      <c r="V176">
+        <v>3.75</v>
+      </c>
+      <c r="W176">
+        <v>1.32</v>
+      </c>
+      <c r="X176">
+        <v>3.1</v>
+      </c>
+      <c r="Y176">
+        <v>2.48</v>
+      </c>
+      <c r="Z176">
+        <v>1.47</v>
+      </c>
+      <c r="AA176">
+        <v>5.9</v>
+      </c>
+      <c r="AB176">
+        <v>1.1</v>
+      </c>
+      <c r="AC176">
+        <v>1.9</v>
+      </c>
+      <c r="AD176">
+        <v>3.6</v>
+      </c>
+      <c r="AE176">
+        <v>3.05</v>
+      </c>
+      <c r="AF176">
+        <v>1.03</v>
+      </c>
+      <c r="AG176">
+        <v>13.75</v>
+      </c>
+      <c r="AH176">
+        <v>1.25</v>
+      </c>
+      <c r="AI176">
+        <v>3.57</v>
+      </c>
+      <c r="AJ176">
+        <v>1.7</v>
+      </c>
+      <c r="AK176">
+        <v>2.05</v>
+      </c>
+      <c r="AL176">
+        <v>1.65</v>
+      </c>
+      <c r="AM176">
+        <v>2.18</v>
+      </c>
+      <c r="AN176">
+        <v>1.28</v>
+      </c>
+      <c r="AO176">
+        <v>1.24</v>
+      </c>
+      <c r="AP176">
+        <v>1.75</v>
+      </c>
+      <c r="AQ176">
+        <v>1.76</v>
+      </c>
+      <c r="AR176">
+        <v>1.5</v>
+      </c>
+      <c r="AS176">
+        <v>1.83</v>
+      </c>
+      <c r="AT176">
+        <v>1.5</v>
+      </c>
+      <c r="AU176">
+        <v>2.55</v>
+      </c>
+      <c r="AV176">
+        <v>1.75</v>
+      </c>
+      <c r="AW176">
+        <v>4.3</v>
+      </c>
+      <c r="AX176">
+        <v>0</v>
+      </c>
+      <c r="AY176">
+        <v>0</v>
+      </c>
+      <c r="AZ176">
+        <v>0</v>
+      </c>
+      <c r="BA176">
+        <v>0</v>
+      </c>
+      <c r="BB176">
+        <v>0</v>
+      </c>
+      <c r="BC176">
+        <v>0</v>
+      </c>
+      <c r="BD176">
+        <v>0</v>
+      </c>
+      <c r="BE176">
+        <v>0</v>
+      </c>
+      <c r="BF176">
+        <v>9</v>
+      </c>
+      <c r="BG176">
+        <v>2</v>
+      </c>
+      <c r="BH176">
+        <v>6</v>
+      </c>
+      <c r="BI176">
+        <v>5</v>
+      </c>
+      <c r="BJ176">
+        <v>15</v>
+      </c>
+      <c r="BK176">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="177" spans="1:63">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>1586017</v>
+      </c>
+      <c r="C177" t="s">
+        <v>63</v>
+      </c>
+      <c r="D177" t="s">
+        <v>64</v>
+      </c>
+      <c r="E177" s="2">
+        <v>44876.58333333334</v>
+      </c>
+      <c r="F177">
+        <v>36</v>
+      </c>
+      <c r="G177" t="s">
+        <v>69</v>
+      </c>
+      <c r="H177" t="s">
+        <v>66</v>
+      </c>
+      <c r="I177">
+        <v>1</v>
+      </c>
+      <c r="J177">
+        <v>1</v>
+      </c>
+      <c r="K177">
+        <v>2</v>
+      </c>
+      <c r="L177">
+        <v>2</v>
+      </c>
+      <c r="M177">
+        <v>1</v>
+      </c>
+      <c r="N177">
+        <v>3</v>
+      </c>
+      <c r="O177" t="s">
+        <v>198</v>
+      </c>
+      <c r="P177" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q177">
+        <v>3</v>
+      </c>
+      <c r="R177">
+        <v>5</v>
+      </c>
+      <c r="S177">
+        <v>8</v>
+      </c>
+      <c r="T177">
+        <v>2.63</v>
+      </c>
+      <c r="U177">
+        <v>2.25</v>
+      </c>
+      <c r="V177">
+        <v>3.5</v>
+      </c>
+      <c r="W177">
+        <v>1.3</v>
+      </c>
+      <c r="X177">
+        <v>3.2</v>
+      </c>
+      <c r="Y177">
+        <v>2.55</v>
+      </c>
+      <c r="Z177">
+        <v>1.44</v>
+      </c>
+      <c r="AA177">
+        <v>5.6</v>
+      </c>
+      <c r="AB177">
+        <v>1.11</v>
+      </c>
+      <c r="AC177">
+        <v>2.05</v>
+      </c>
+      <c r="AD177">
+        <v>3.7</v>
+      </c>
+      <c r="AE177">
+        <v>3.1</v>
+      </c>
+      <c r="AF177">
+        <v>1.03</v>
+      </c>
+      <c r="AG177">
+        <v>15.5</v>
+      </c>
+      <c r="AH177">
+        <v>1.19</v>
+      </c>
+      <c r="AI177">
+        <v>4.25</v>
+      </c>
+      <c r="AJ177">
+        <v>1.67</v>
+      </c>
+      <c r="AK177">
+        <v>2.07</v>
+      </c>
+      <c r="AL177">
+        <v>1.6</v>
+      </c>
+      <c r="AM177">
+        <v>2.23</v>
+      </c>
+      <c r="AN177">
+        <v>1.32</v>
+      </c>
+      <c r="AO177">
+        <v>1.23</v>
+      </c>
+      <c r="AP177">
+        <v>1.68</v>
+      </c>
+      <c r="AQ177">
+        <v>0.88</v>
+      </c>
+      <c r="AR177">
+        <v>0</v>
+      </c>
+      <c r="AS177">
+        <v>1</v>
+      </c>
+      <c r="AT177">
+        <v>0</v>
+      </c>
+      <c r="AU177">
+        <v>1.35</v>
+      </c>
+      <c r="AV177">
+        <v>1.13</v>
+      </c>
+      <c r="AW177">
+        <v>2.48</v>
+      </c>
+      <c r="AX177">
+        <v>0</v>
+      </c>
+      <c r="AY177">
+        <v>0</v>
+      </c>
+      <c r="AZ177">
+        <v>0</v>
+      </c>
+      <c r="BA177">
+        <v>0</v>
+      </c>
+      <c r="BB177">
+        <v>0</v>
+      </c>
+      <c r="BC177">
+        <v>0</v>
+      </c>
+      <c r="BD177">
+        <v>0</v>
+      </c>
+      <c r="BE177">
+        <v>0</v>
+      </c>
+      <c r="BF177">
+        <v>10</v>
+      </c>
+      <c r="BG177">
+        <v>6</v>
+      </c>
+      <c r="BH177">
+        <v>11</v>
+      </c>
+      <c r="BI177">
+        <v>11</v>
+      </c>
+      <c r="BJ177">
+        <v>21</v>
+      </c>
+      <c r="BK177">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="178" spans="1:63">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>1586016</v>
+      </c>
+      <c r="C178" t="s">
+        <v>63</v>
+      </c>
+      <c r="D178" t="s">
+        <v>64</v>
+      </c>
+      <c r="E178" s="2">
+        <v>44877.375</v>
+      </c>
+      <c r="F178">
+        <v>36</v>
+      </c>
+      <c r="G178" t="s">
+        <v>74</v>
+      </c>
+      <c r="H178" t="s">
+        <v>70</v>
+      </c>
+      <c r="I178">
+        <v>1</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+      <c r="K178">
+        <v>1</v>
+      </c>
+      <c r="L178">
+        <v>2</v>
+      </c>
+      <c r="M178">
+        <v>2</v>
+      </c>
+      <c r="N178">
+        <v>4</v>
+      </c>
+      <c r="O178" t="s">
+        <v>82</v>
+      </c>
+      <c r="P178" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q178">
+        <v>11</v>
+      </c>
+      <c r="R178">
+        <v>4</v>
+      </c>
+      <c r="S178">
+        <v>15</v>
+      </c>
+      <c r="T178">
+        <v>2.6</v>
+      </c>
+      <c r="U178">
+        <v>2.3</v>
+      </c>
+      <c r="V178">
+        <v>3.5</v>
+      </c>
+      <c r="W178">
+        <v>1.32</v>
+      </c>
+      <c r="X178">
+        <v>3.1</v>
+      </c>
+      <c r="Y178">
+        <v>2.48</v>
+      </c>
+      <c r="Z178">
+        <v>1.46</v>
+      </c>
+      <c r="AA178">
+        <v>5.5</v>
+      </c>
+      <c r="AB178">
+        <v>1.12</v>
+      </c>
+      <c r="AC178">
+        <v>2.06</v>
+      </c>
+      <c r="AD178">
+        <v>3.54</v>
+      </c>
+      <c r="AE178">
+        <v>3.16</v>
+      </c>
+      <c r="AF178">
+        <v>1.03</v>
+      </c>
+      <c r="AG178">
+        <v>16</v>
+      </c>
+      <c r="AH178">
+        <v>1.18</v>
+      </c>
+      <c r="AI178">
+        <v>4.4</v>
+      </c>
+      <c r="AJ178">
+        <v>1.61</v>
+      </c>
+      <c r="AK178">
+        <v>2.15</v>
+      </c>
+      <c r="AL178">
+        <v>1.56</v>
+      </c>
+      <c r="AM178">
+        <v>2.28</v>
+      </c>
+      <c r="AN178">
+        <v>1.32</v>
+      </c>
+      <c r="AO178">
+        <v>1.23</v>
+      </c>
+      <c r="AP178">
+        <v>1.68</v>
+      </c>
+      <c r="AQ178">
+        <v>1.29</v>
+      </c>
+      <c r="AR178">
+        <v>1.12</v>
+      </c>
+      <c r="AS178">
+        <v>1.28</v>
+      </c>
+      <c r="AT178">
+        <v>1.11</v>
+      </c>
+      <c r="AU178">
+        <v>1.56</v>
+      </c>
+      <c r="AV178">
+        <v>1.6</v>
+      </c>
+      <c r="AW178">
+        <v>3.16</v>
+      </c>
+      <c r="AX178">
+        <v>0</v>
+      </c>
+      <c r="AY178">
+        <v>0</v>
+      </c>
+      <c r="AZ178">
+        <v>0</v>
+      </c>
+      <c r="BA178">
+        <v>0</v>
+      </c>
+      <c r="BB178">
+        <v>0</v>
+      </c>
+      <c r="BC178">
+        <v>0</v>
+      </c>
+      <c r="BD178">
+        <v>0</v>
+      </c>
+      <c r="BE178">
+        <v>0</v>
+      </c>
+      <c r="BF178">
+        <v>3</v>
+      </c>
+      <c r="BG178">
+        <v>3</v>
+      </c>
+      <c r="BH178">
+        <v>5</v>
+      </c>
+      <c r="BI178">
+        <v>8</v>
+      </c>
+      <c r="BJ178">
+        <v>8</v>
+      </c>
+      <c r="BK178">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="179" spans="1:63">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>1586018</v>
+      </c>
+      <c r="C179" t="s">
+        <v>63</v>
+      </c>
+      <c r="D179" t="s">
+        <v>64</v>
+      </c>
+      <c r="E179" s="2">
+        <v>44877.375</v>
+      </c>
+      <c r="F179">
+        <v>36</v>
+      </c>
+      <c r="G179" t="s">
+        <v>73</v>
+      </c>
+      <c r="H179" t="s">
+        <v>67</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <v>2</v>
+      </c>
+      <c r="K179">
+        <v>2</v>
+      </c>
+      <c r="L179">
+        <v>0</v>
+      </c>
+      <c r="M179">
+        <v>3</v>
+      </c>
+      <c r="N179">
+        <v>3</v>
+      </c>
+      <c r="O179" t="s">
+        <v>78</v>
+      </c>
+      <c r="P179" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q179">
+        <v>3</v>
+      </c>
+      <c r="R179">
+        <v>3</v>
+      </c>
+      <c r="S179">
+        <v>6</v>
+      </c>
+      <c r="T179">
+        <v>7</v>
+      </c>
+      <c r="U179">
+        <v>2.75</v>
+      </c>
+      <c r="V179">
+        <v>1.67</v>
+      </c>
+      <c r="W179">
+        <v>1.19</v>
+      </c>
+      <c r="X179">
+        <v>4.2</v>
+      </c>
+      <c r="Y179">
+        <v>2.01</v>
+      </c>
+      <c r="Z179">
+        <v>1.73</v>
+      </c>
+      <c r="AA179">
+        <v>4</v>
+      </c>
+      <c r="AB179">
+        <v>1.21</v>
+      </c>
+      <c r="AC179">
+        <v>8.5</v>
+      </c>
+      <c r="AD179">
+        <v>5.55</v>
+      </c>
+      <c r="AE179">
+        <v>1.27</v>
+      </c>
+      <c r="AF179">
+        <v>1.01</v>
+      </c>
+      <c r="AG179">
+        <v>27</v>
+      </c>
+      <c r="AH179">
+        <v>1.12</v>
+      </c>
+      <c r="AI179">
+        <v>5.45</v>
+      </c>
+      <c r="AJ179">
+        <v>1.36</v>
+      </c>
+      <c r="AK179">
+        <v>2.74</v>
+      </c>
+      <c r="AL179">
+        <v>1.72</v>
+      </c>
+      <c r="AM179">
+        <v>2.05</v>
+      </c>
+      <c r="AN179">
+        <v>3.25</v>
+      </c>
+      <c r="AO179">
+        <v>1.09</v>
+      </c>
+      <c r="AP179">
+        <v>1.02</v>
+      </c>
+      <c r="AQ179">
+        <v>1</v>
+      </c>
+      <c r="AR179">
+        <v>1.41</v>
+      </c>
+      <c r="AS179">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT179">
+        <v>1.5</v>
+      </c>
+      <c r="AU179">
+        <v>1.25</v>
+      </c>
+      <c r="AV179">
+        <v>1.7</v>
+      </c>
+      <c r="AW179">
+        <v>2.95</v>
+      </c>
+      <c r="AX179">
+        <v>0</v>
+      </c>
+      <c r="AY179">
+        <v>0</v>
+      </c>
+      <c r="AZ179">
+        <v>0</v>
+      </c>
+      <c r="BA179">
+        <v>0</v>
+      </c>
+      <c r="BB179">
+        <v>0</v>
+      </c>
+      <c r="BC179">
+        <v>0</v>
+      </c>
+      <c r="BD179">
+        <v>0</v>
+      </c>
+      <c r="BE179">
+        <v>0</v>
+      </c>
+      <c r="BF179">
+        <v>2</v>
+      </c>
+      <c r="BG179">
+        <v>4</v>
+      </c>
+      <c r="BH179">
+        <v>7</v>
+      </c>
+      <c r="BI179">
+        <v>4</v>
+      </c>
+      <c r="BJ179">
+        <v>9</v>
+      </c>
+      <c r="BK179">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="180" spans="1:63">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>1586019</v>
+      </c>
+      <c r="C180" t="s">
+        <v>63</v>
+      </c>
+      <c r="D180" t="s">
+        <v>64</v>
+      </c>
+      <c r="E180" s="2">
+        <v>44877.375</v>
+      </c>
+      <c r="F180">
+        <v>36</v>
+      </c>
+      <c r="G180" t="s">
+        <v>71</v>
+      </c>
+      <c r="H180" t="s">
+        <v>65</v>
+      </c>
+      <c r="I180">
+        <v>1</v>
+      </c>
+      <c r="J180">
+        <v>1</v>
+      </c>
+      <c r="K180">
+        <v>2</v>
+      </c>
+      <c r="L180">
+        <v>2</v>
+      </c>
+      <c r="M180">
+        <v>1</v>
+      </c>
+      <c r="N180">
+        <v>3</v>
+      </c>
+      <c r="O180" t="s">
+        <v>199</v>
+      </c>
+      <c r="P180" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q180">
+        <v>11</v>
+      </c>
+      <c r="R180">
+        <v>5</v>
+      </c>
+      <c r="S180">
+        <v>16</v>
+      </c>
+      <c r="T180">
+        <v>2.75</v>
+      </c>
+      <c r="U180">
+        <v>2.2</v>
+      </c>
+      <c r="V180">
+        <v>3.5</v>
+      </c>
+      <c r="W180">
+        <v>1.34</v>
+      </c>
+      <c r="X180">
+        <v>2.93</v>
+      </c>
+      <c r="Y180">
+        <v>2.61</v>
+      </c>
+      <c r="Z180">
+        <v>1.42</v>
+      </c>
+      <c r="AA180">
+        <v>6.25</v>
+      </c>
+      <c r="AB180">
+        <v>1.09</v>
+      </c>
+      <c r="AC180">
+        <v>2.18</v>
+      </c>
+      <c r="AD180">
+        <v>3.4</v>
+      </c>
+      <c r="AE180">
+        <v>3</v>
+      </c>
+      <c r="AF180">
+        <v>1.01</v>
+      </c>
+      <c r="AG180">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH180">
+        <v>1.23</v>
+      </c>
+      <c r="AI180">
+        <v>3.8</v>
+      </c>
+      <c r="AJ180">
+        <v>1.83</v>
+      </c>
+      <c r="AK180">
+        <v>1.95</v>
+      </c>
+      <c r="AL180">
+        <v>1.67</v>
+      </c>
+      <c r="AM180">
+        <v>2.08</v>
+      </c>
+      <c r="AN180">
+        <v>1.34</v>
+      </c>
+      <c r="AO180">
+        <v>1.26</v>
+      </c>
+      <c r="AP180">
+        <v>1.61</v>
+      </c>
+      <c r="AQ180">
+        <v>2.76</v>
+      </c>
+      <c r="AR180">
+        <v>2.47</v>
+      </c>
+      <c r="AS180">
+        <v>2.78</v>
+      </c>
+      <c r="AT180">
+        <v>2.33</v>
+      </c>
+      <c r="AU180">
+        <v>2.44</v>
+      </c>
+      <c r="AV180">
+        <v>1.86</v>
+      </c>
+      <c r="AW180">
+        <v>4.3</v>
+      </c>
+      <c r="AX180">
+        <v>0</v>
+      </c>
+      <c r="AY180">
+        <v>0</v>
+      </c>
+      <c r="AZ180">
+        <v>0</v>
+      </c>
+      <c r="BA180">
+        <v>0</v>
+      </c>
+      <c r="BB180">
+        <v>0</v>
+      </c>
+      <c r="BC180">
+        <v>0</v>
+      </c>
+      <c r="BD180">
+        <v>0</v>
+      </c>
+      <c r="BE180">
+        <v>0</v>
+      </c>
+      <c r="BF180">
+        <v>8</v>
+      </c>
+      <c r="BG180">
+        <v>8</v>
+      </c>
+      <c r="BH180">
+        <v>5</v>
+      </c>
+      <c r="BI180">
+        <v>6</v>
+      </c>
+      <c r="BJ180">
+        <v>13</v>
+      </c>
+      <c r="BK180">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="181" spans="1:63">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>1586020</v>
+      </c>
+      <c r="C181" t="s">
+        <v>63</v>
+      </c>
+      <c r="D181" t="s">
+        <v>64</v>
+      </c>
+      <c r="E181" s="2">
+        <v>44877.375</v>
+      </c>
+      <c r="F181">
+        <v>36</v>
+      </c>
+      <c r="G181" t="s">
+        <v>68</v>
+      </c>
+      <c r="H181" t="s">
+        <v>72</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <v>1</v>
+      </c>
+      <c r="K181">
+        <v>1</v>
+      </c>
+      <c r="L181">
+        <v>1</v>
+      </c>
+      <c r="M181">
+        <v>1</v>
+      </c>
+      <c r="N181">
+        <v>2</v>
+      </c>
+      <c r="O181" t="s">
+        <v>104</v>
+      </c>
+      <c r="P181" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q181">
+        <v>6</v>
+      </c>
+      <c r="R181">
+        <v>1</v>
+      </c>
+      <c r="S181">
+        <v>7</v>
+      </c>
+      <c r="T181">
+        <v>6</v>
+      </c>
+      <c r="U181">
+        <v>2.6</v>
+      </c>
+      <c r="V181">
+        <v>1.83</v>
+      </c>
+      <c r="W181">
+        <v>1.25</v>
+      </c>
+      <c r="X181">
+        <v>3.5</v>
+      </c>
+      <c r="Y181">
+        <v>2.2</v>
+      </c>
+      <c r="Z181">
+        <v>1.6</v>
+      </c>
+      <c r="AA181">
+        <v>4.7</v>
+      </c>
+      <c r="AB181">
+        <v>1.15</v>
+      </c>
+      <c r="AC181">
+        <v>6.3</v>
+      </c>
+      <c r="AD181">
+        <v>4.6</v>
+      </c>
+      <c r="AE181">
+        <v>1.41</v>
+      </c>
+      <c r="AF181">
+        <v>1.02</v>
+      </c>
+      <c r="AG181">
+        <v>21.5</v>
+      </c>
+      <c r="AH181">
+        <v>1.15</v>
+      </c>
+      <c r="AI181">
+        <v>4.77</v>
+      </c>
+      <c r="AJ181">
+        <v>1.55</v>
+      </c>
+      <c r="AK181">
+        <v>2.3</v>
+      </c>
+      <c r="AL181">
+        <v>1.72</v>
+      </c>
+      <c r="AM181">
+        <v>2</v>
+      </c>
+      <c r="AN181">
+        <v>2.9</v>
+      </c>
+      <c r="AO181">
+        <v>1.12</v>
+      </c>
+      <c r="AP181">
+        <v>1.06</v>
+      </c>
+      <c r="AQ181">
+        <v>1.35</v>
+      </c>
+      <c r="AR181">
+        <v>1.82</v>
+      </c>
+      <c r="AS181">
+        <v>1.33</v>
+      </c>
+      <c r="AT181">
+        <v>1.78</v>
+      </c>
+      <c r="AU181">
+        <v>1.51</v>
+      </c>
+      <c r="AV181">
+        <v>2.13</v>
+      </c>
+      <c r="AW181">
+        <v>3.64</v>
+      </c>
+      <c r="AX181">
+        <v>0</v>
+      </c>
+      <c r="AY181">
+        <v>0</v>
+      </c>
+      <c r="AZ181">
+        <v>0</v>
+      </c>
+      <c r="BA181">
+        <v>0</v>
+      </c>
+      <c r="BB181">
+        <v>0</v>
+      </c>
+      <c r="BC181">
+        <v>0</v>
+      </c>
+      <c r="BD181">
+        <v>0</v>
+      </c>
+      <c r="BE181">
+        <v>0</v>
+      </c>
+      <c r="BF181">
+        <v>8</v>
+      </c>
+      <c r="BG181">
+        <v>2</v>
+      </c>
+      <c r="BH181">
+        <v>16</v>
+      </c>
+      <c r="BI181">
+        <v>2</v>
+      </c>
+      <c r="BJ181">
+        <v>24</v>
+      </c>
+      <c r="BK181">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Estonia Meistriliiga_2022.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Estonia Meistriliiga_2022.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
